--- a/DC/tektronix_parser.xlsx
+++ b/DC/tektronix_parser.xlsx
@@ -1343,7 +1343,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DC/tektronix_parser.xlsx
+++ b/DC/tektronix_parser.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="295k" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="25">
   <si>
     <t>T</t>
   </si>
@@ -34,6 +34,63 @@
   </si>
   <si>
     <t>dDC</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>f2_bad</t>
+  </si>
+  <si>
+    <t>f3_bad</t>
+  </si>
+  <si>
+    <t>chi2_per_dof_th</t>
+  </si>
+  <si>
+    <t>f1_good</t>
+  </si>
+  <si>
+    <t>f1_bad</t>
+  </si>
+  <si>
+    <t>шумы</t>
+  </si>
+  <si>
+    <t>одиночные</t>
+  </si>
+  <si>
+    <t>двойные</t>
+  </si>
+  <si>
+    <t>тройные</t>
+  </si>
+  <si>
+    <t>f2_good</t>
+  </si>
+  <si>
+    <t>всего</t>
+  </si>
+  <si>
+    <t>f3_good</t>
+  </si>
+  <si>
+    <t>одиночное, принятое за 2-е</t>
+  </si>
+  <si>
+    <t>двойных</t>
+  </si>
+  <si>
+    <t>тройных</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> одиночных</t>
+  </si>
+  <si>
+    <t>правильное нахождение</t>
+  </si>
+  <si>
+    <t>количество</t>
   </si>
 </sst>
 </file>
@@ -72,11 +129,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1342,8 +1400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1569,1229 +1627,486 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>681.42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>710.86</v>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
       </c>
       <c r="B2">
-        <f>A2-A1</f>
-        <v>29.440000000000055</v>
+        <v>72</v>
       </c>
       <c r="C2">
-        <v>2.4686099999999999E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>770.43600000000004</v>
-      </c>
-      <c r="B3">
-        <f t="shared" ref="B3:B66" si="0">A3-A2</f>
-        <v>59.576000000000022</v>
+        <v>51</v>
+      </c>
+      <c r="D2">
+        <v>21</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>11</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>6.5145400000000006E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1024.55</v>
-      </c>
-      <c r="B4">
-        <f t="shared" si="0"/>
-        <v>254.11399999999992</v>
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>3.6211300000000002E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1103.8800000000001</v>
-      </c>
-      <c r="B5">
-        <f t="shared" si="0"/>
-        <v>79.330000000000155</v>
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>3.9619599999999998E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1189.77</v>
-      </c>
-      <c r="B6">
-        <f t="shared" si="0"/>
-        <v>85.889999999999873</v>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>3.9999300000000002E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1431.41</v>
-      </c>
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>241.6400000000001</v>
-      </c>
-      <c r="C7">
-        <v>3.78591E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1562.72</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>131.30999999999995</v>
-      </c>
-      <c r="C8">
-        <v>0.19580700000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1578.86</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>16.139999999999873</v>
-      </c>
-      <c r="C9">
-        <v>4.3330300000000002E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1663.97</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="0"/>
-        <v>85.110000000000127</v>
-      </c>
-      <c r="C10">
-        <v>8.8248499999999994E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1678.51</v>
-      </c>
-      <c r="B11">
-        <f t="shared" si="0"/>
-        <v>14.539999999999964</v>
-      </c>
-      <c r="C11">
-        <v>6.5688399999999994E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2735.52</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="0"/>
-        <v>1057.01</v>
-      </c>
-      <c r="C12">
-        <v>4.3470399999999999E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>3058.23</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="0"/>
-        <v>322.71000000000004</v>
-      </c>
-      <c r="C13">
-        <v>4.7851499999999998E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>3259.94</v>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f>1261/398</f>
+        <v>3.1683417085427137</v>
+      </c>
+      <c r="G9">
+        <f>5313/398</f>
+        <v>13.349246231155778</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f>1619/499</f>
+        <v>3.2444889779559118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <f>1413/461</f>
+        <v>3.0650759219088939</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
-        <v>201.71000000000004</v>
+        <v>72</v>
       </c>
       <c r="C14">
-        <v>3.6109299999999997E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>3991.19</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>731.25</v>
+        <v>53</v>
+      </c>
+      <c r="D14">
+        <v>19</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>9</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
       </c>
       <c r="C15">
-        <v>6.8893399999999994E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>4033.76</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="0"/>
-        <v>42.570000000000164</v>
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
       </c>
       <c r="C16">
-        <v>3.8124600000000002E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>4485.54</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="0"/>
-        <v>451.77999999999975</v>
+        <v>52</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
       </c>
       <c r="C17">
-        <v>3.9897700000000001E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>4965.1000000000004</v>
-      </c>
-      <c r="B18">
-        <f t="shared" si="0"/>
-        <v>479.5600000000004</v>
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>11</v>
+      </c>
+      <c r="E17">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>15</v>
       </c>
       <c r="C18">
-        <v>4.2364400000000003E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>5741.36</v>
-      </c>
-      <c r="B19">
-        <f t="shared" si="0"/>
-        <v>776.25999999999931</v>
-      </c>
-      <c r="C19">
-        <v>4.4149500000000001E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>6052.4</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="0"/>
-        <v>311.03999999999996</v>
-      </c>
-      <c r="C20">
-        <v>4.5255499999999997E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>6189.76</v>
-      </c>
-      <c r="B21">
-        <f t="shared" si="0"/>
-        <v>137.36000000000058</v>
-      </c>
-      <c r="C21">
-        <v>6.4393099999999995E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>6491.66</v>
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" t="s">
+        <v>20</v>
+      </c>
+      <c r="N21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>17</v>
       </c>
       <c r="B22">
-        <f t="shared" si="0"/>
-        <v>301.89999999999964</v>
+        <v>72</v>
       </c>
       <c r="C22">
-        <v>3.80442E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>6610.28</v>
-      </c>
-      <c r="B23">
-        <f t="shared" si="0"/>
-        <v>118.61999999999989</v>
+        <v>54</v>
+      </c>
+      <c r="D22">
+        <v>18</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <v>8</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>5</v>
+      </c>
+      <c r="K22" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22" s="4">
+        <f>C24/(C24+C23)</f>
+        <v>0.98148148148148151</v>
+      </c>
+      <c r="M22" s="4">
+        <f>E25/(E25 + F25)</f>
+        <v>0.9</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>12</v>
       </c>
       <c r="C23">
-        <v>8.6562700000000006E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>6620.4</v>
-      </c>
-      <c r="B24">
-        <f t="shared" si="0"/>
-        <v>10.119999999999891</v>
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" s="4">
+        <f>C24/B22</f>
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="M23" s="4">
+        <f>D25/B22</f>
+        <v>0.15277777777777779</v>
+      </c>
+      <c r="N23" s="4">
+        <f>D26/B22</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>13</v>
       </c>
       <c r="C24">
-        <v>7.4535799999999999E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>6833.85</v>
-      </c>
-      <c r="B25">
-        <f t="shared" si="0"/>
-        <v>213.45000000000073</v>
+        <v>53</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>14</v>
       </c>
       <c r="C25">
-        <v>6.3094999999999998E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>7003.04</v>
-      </c>
-      <c r="B26">
-        <f t="shared" si="0"/>
-        <v>169.1899999999996</v>
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>11</v>
+      </c>
+      <c r="E25">
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>15</v>
       </c>
       <c r="C26">
-        <v>4.4065199999999999E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>7290.57</v>
-      </c>
-      <c r="B27">
-        <f t="shared" si="0"/>
-        <v>287.52999999999975</v>
-      </c>
-      <c r="C27">
-        <v>3.6352799999999998E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>7439.11</v>
-      </c>
-      <c r="B28">
-        <f t="shared" si="0"/>
-        <v>148.53999999999996</v>
-      </c>
-      <c r="C28">
-        <v>4.6818800000000001E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>7459.88</v>
-      </c>
-      <c r="B29">
-        <f t="shared" si="0"/>
-        <v>20.770000000000437</v>
-      </c>
-      <c r="C29">
-        <v>7.4091799999999999E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>7494.43</v>
-      </c>
-      <c r="B30">
-        <f t="shared" si="0"/>
-        <v>34.550000000000182</v>
-      </c>
-      <c r="C30">
-        <v>6.4664899999999997E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>7806.66</v>
-      </c>
-      <c r="B31">
-        <f t="shared" si="0"/>
-        <v>312.22999999999956</v>
-      </c>
-      <c r="C31">
-        <v>4.3021499999999997E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>7959.53</v>
-      </c>
-      <c r="B32">
-        <f t="shared" si="0"/>
-        <v>152.86999999999989</v>
-      </c>
-      <c r="C32">
-        <v>4.70572E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>7984.48</v>
-      </c>
-      <c r="B33">
-        <f t="shared" si="0"/>
-        <v>24.949999999999818</v>
-      </c>
-      <c r="C33">
-        <v>3.6252100000000002E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>7984.59</v>
-      </c>
-      <c r="B34">
-        <f t="shared" si="0"/>
-        <v>0.11000000000058208</v>
-      </c>
-      <c r="C34">
-        <v>0.181945</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>8075.6</v>
-      </c>
-      <c r="B35">
-        <f t="shared" si="0"/>
-        <v>91.010000000000218</v>
-      </c>
-      <c r="C35">
-        <v>285.49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>8084.45</v>
-      </c>
-      <c r="B36">
-        <f t="shared" si="0"/>
-        <v>8.8499999999994543</v>
-      </c>
-      <c r="C36">
-        <v>3.7908299999999999E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>8127.42</v>
-      </c>
-      <c r="B37">
-        <f t="shared" si="0"/>
-        <v>42.970000000000255</v>
-      </c>
-      <c r="C37">
-        <v>5.7712199999999998E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>8254.68</v>
-      </c>
-      <c r="B38">
-        <f t="shared" si="0"/>
-        <v>127.26000000000022</v>
-      </c>
-      <c r="C38">
-        <v>3.67192E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>8335.08</v>
-      </c>
-      <c r="B39">
-        <f t="shared" si="0"/>
-        <v>80.399999999999636</v>
-      </c>
-      <c r="C39">
-        <v>4.4758199999999998E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>8379.76</v>
-      </c>
-      <c r="B40">
-        <f t="shared" si="0"/>
-        <v>44.680000000000291</v>
-      </c>
-      <c r="C40">
-        <v>6.34266E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>8608.74</v>
-      </c>
-      <c r="B41">
-        <f t="shared" si="0"/>
-        <v>228.97999999999956</v>
-      </c>
-      <c r="C41">
-        <v>5.2039799999999997E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>8628.26</v>
-      </c>
-      <c r="B42">
-        <f t="shared" si="0"/>
-        <v>19.520000000000437</v>
-      </c>
-      <c r="C42">
-        <v>9.7429199999999994E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>8885.02</v>
-      </c>
-      <c r="B43">
-        <f t="shared" si="0"/>
-        <v>256.76000000000022</v>
-      </c>
-      <c r="C43">
-        <v>4.4828199999999999E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>8906.4599999999991</v>
-      </c>
-      <c r="B44">
-        <f t="shared" si="0"/>
-        <v>21.43999999999869</v>
-      </c>
-      <c r="C44">
-        <v>3.6571600000000003E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>8928.1299999999992</v>
-      </c>
-      <c r="B45">
-        <f t="shared" si="0"/>
-        <v>21.670000000000073</v>
-      </c>
-      <c r="C45">
-        <v>4.4619100000000002E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>9185.34</v>
-      </c>
-      <c r="B46">
-        <f t="shared" si="0"/>
-        <v>257.21000000000095</v>
-      </c>
-      <c r="C46">
-        <v>0.12654699999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>9257.48</v>
-      </c>
-      <c r="B47">
-        <f t="shared" si="0"/>
-        <v>72.139999999999418</v>
-      </c>
-      <c r="C47">
-        <v>4.79867E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>9525.5300000000007</v>
-      </c>
-      <c r="B48">
-        <f t="shared" si="0"/>
-        <v>268.05000000000109</v>
-      </c>
-      <c r="C48">
-        <v>4.57761E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>9793.9699999999993</v>
-      </c>
-      <c r="B49">
-        <f t="shared" si="0"/>
-        <v>268.43999999999869</v>
-      </c>
-      <c r="C49">
-        <v>4.40807E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>9845.24</v>
-      </c>
-      <c r="B50">
-        <f t="shared" si="0"/>
-        <v>51.270000000000437</v>
-      </c>
-      <c r="C50">
-        <v>8.2582900000000001E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>9861</v>
-      </c>
-      <c r="B51">
-        <f t="shared" si="0"/>
-        <v>15.760000000000218</v>
-      </c>
-      <c r="C51">
-        <v>3.60592E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>10839.9</v>
-      </c>
-      <c r="B52">
-        <f t="shared" si="0"/>
-        <v>978.89999999999964</v>
-      </c>
-      <c r="C52">
-        <v>4.5393500000000003E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>10850.1</v>
-      </c>
-      <c r="B53">
-        <f t="shared" si="0"/>
-        <v>10.200000000000728</v>
-      </c>
-      <c r="C53">
-        <v>3.2339100000000003E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>10993</v>
-      </c>
-      <c r="B54">
-        <f t="shared" si="0"/>
-        <v>142.89999999999964</v>
-      </c>
-      <c r="C54">
-        <v>6.9942299999999999E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>11203.3</v>
-      </c>
-      <c r="B55">
-        <f t="shared" si="0"/>
-        <v>210.29999999999927</v>
-      </c>
-      <c r="C55">
-        <v>4.3353900000000001E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>11306.1</v>
-      </c>
-      <c r="B56">
-        <f t="shared" si="0"/>
-        <v>102.80000000000109</v>
-      </c>
-      <c r="C56">
-        <v>4.2178800000000002E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>11428.4</v>
-      </c>
-      <c r="B57">
-        <f t="shared" si="0"/>
-        <v>122.29999999999927</v>
-      </c>
-      <c r="C57">
-        <v>4.7144600000000002E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>11519.5</v>
-      </c>
-      <c r="B58">
-        <f t="shared" si="0"/>
-        <v>91.100000000000364</v>
-      </c>
-      <c r="C58">
-        <v>4.4548900000000002E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>11824</v>
-      </c>
-      <c r="B59">
-        <f t="shared" si="0"/>
-        <v>304.5</v>
-      </c>
-      <c r="C59">
-        <v>5.7886E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>11865.5</v>
-      </c>
-      <c r="B60">
-        <f t="shared" si="0"/>
-        <v>41.5</v>
-      </c>
-      <c r="C60">
-        <v>3.9417800000000003E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>12066.4</v>
-      </c>
-      <c r="B61">
-        <f t="shared" si="0"/>
-        <v>200.89999999999964</v>
-      </c>
-      <c r="C61">
-        <v>6.0337300000000003E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>12338</v>
-      </c>
-      <c r="B62">
-        <f t="shared" si="0"/>
-        <v>271.60000000000036</v>
-      </c>
-      <c r="C62">
-        <v>3.9763100000000003E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>12591.1</v>
-      </c>
-      <c r="B63">
-        <f t="shared" si="0"/>
-        <v>253.10000000000036</v>
-      </c>
-      <c r="C63">
-        <v>4.57452E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>12603.7</v>
-      </c>
-      <c r="B64">
-        <f t="shared" si="0"/>
-        <v>12.600000000000364</v>
-      </c>
-      <c r="C64">
-        <v>0.107969</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>12625.9</v>
-      </c>
-      <c r="B65">
-        <f t="shared" si="0"/>
-        <v>22.199999999998909</v>
-      </c>
-      <c r="C65">
-        <v>0.1419</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>13589.1</v>
-      </c>
-      <c r="B66">
-        <f t="shared" si="0"/>
-        <v>963.20000000000073</v>
-      </c>
-      <c r="C66">
-        <v>4.34224E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>13796.5</v>
-      </c>
-      <c r="B67">
-        <f t="shared" ref="B67:B102" si="1">A67-A66</f>
-        <v>207.39999999999964</v>
-      </c>
-      <c r="C67">
-        <v>4.7560699999999997E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>13797.4</v>
-      </c>
-      <c r="B68">
-        <f t="shared" si="1"/>
-        <v>0.8999999999996362</v>
-      </c>
-      <c r="C68">
-        <v>4.1923099999999998E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>13804.4</v>
-      </c>
-      <c r="B69">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
         <v>7</v>
       </c>
-      <c r="C69">
-        <v>7.7926700000000002E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>13933.7</v>
-      </c>
-      <c r="B70">
-        <f t="shared" si="1"/>
-        <v>129.30000000000109</v>
-      </c>
-      <c r="C70">
-        <v>4.7829799999999999E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>13936.7</v>
-      </c>
-      <c r="B71">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="C71">
-        <v>6.7737500000000006E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>13944.7</v>
-      </c>
-      <c r="B72">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="C72">
-        <v>4.90646E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>14008</v>
-      </c>
-      <c r="B73">
-        <f t="shared" si="1"/>
-        <v>63.299999999999272</v>
-      </c>
-      <c r="C73">
-        <v>4.1995499999999998E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>14154.9</v>
-      </c>
-      <c r="B74">
-        <f t="shared" si="1"/>
-        <v>146.89999999999964</v>
-      </c>
-      <c r="C74">
-        <v>0.12255000000000001</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>14175.7</v>
-      </c>
-      <c r="B75">
-        <f t="shared" si="1"/>
-        <v>20.800000000001091</v>
-      </c>
-      <c r="C75">
-        <v>3.9580499999999998E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>14263.8</v>
-      </c>
-      <c r="B76">
-        <f t="shared" si="1"/>
-        <v>88.099999999998545</v>
-      </c>
-      <c r="C76">
-        <v>6.1205000000000002E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>14357.8</v>
-      </c>
-      <c r="B77">
-        <f t="shared" si="1"/>
-        <v>94</v>
-      </c>
-      <c r="C77">
-        <v>7.8686000000000006E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>14412.6</v>
-      </c>
-      <c r="B78">
-        <f t="shared" si="1"/>
-        <v>54.800000000001091</v>
-      </c>
-      <c r="C78">
-        <v>4.46188E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>15192.9</v>
-      </c>
-      <c r="B79">
-        <f t="shared" si="1"/>
-        <v>780.29999999999927</v>
-      </c>
-      <c r="C79">
-        <v>6.5145300000000003E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>15233.2</v>
-      </c>
-      <c r="B80">
-        <f t="shared" si="1"/>
-        <v>40.300000000001091</v>
-      </c>
-      <c r="C80">
-        <v>2.2113600000000001E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>15244.2</v>
-      </c>
-      <c r="B81">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="C81">
-        <v>6.2879599999999994E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>15355.5</v>
-      </c>
-      <c r="B82">
-        <f t="shared" si="1"/>
-        <v>111.29999999999927</v>
-      </c>
-      <c r="C82">
-        <v>3.7708600000000002E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>15458.4</v>
-      </c>
-      <c r="B83">
-        <f t="shared" si="1"/>
-        <v>102.89999999999964</v>
-      </c>
-      <c r="C83">
-        <v>5.0087899999999998E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>15488.7</v>
-      </c>
-      <c r="B84">
-        <f t="shared" si="1"/>
-        <v>30.300000000001091</v>
-      </c>
-      <c r="C84">
-        <v>4.5751600000000003E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>15605.2</v>
-      </c>
-      <c r="B85">
-        <f t="shared" si="1"/>
-        <v>116.5</v>
-      </c>
-      <c r="C85">
-        <v>4.5012499999999997E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>15827.6</v>
-      </c>
-      <c r="B86">
-        <f t="shared" si="1"/>
-        <v>222.39999999999964</v>
-      </c>
-      <c r="C86">
-        <v>4.1657100000000002E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>16457.7</v>
-      </c>
-      <c r="B87">
-        <f t="shared" si="1"/>
-        <v>630.10000000000036</v>
-      </c>
-      <c r="C87">
-        <v>4.2596099999999998E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>16776</v>
-      </c>
-      <c r="B88">
-        <f t="shared" si="1"/>
-        <v>318.29999999999927</v>
-      </c>
-      <c r="C88">
-        <v>4.8952900000000001E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>16790.8</v>
-      </c>
-      <c r="B89">
-        <f t="shared" si="1"/>
-        <v>14.799999999999272</v>
-      </c>
-      <c r="C89">
-        <v>3.98149E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>17083.900000000001</v>
-      </c>
-      <c r="B90">
-        <f t="shared" si="1"/>
-        <v>293.10000000000218</v>
-      </c>
-      <c r="C90">
-        <v>4.7013699999999999E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>17479.3</v>
-      </c>
-      <c r="B91">
-        <f t="shared" si="1"/>
-        <v>395.39999999999782</v>
-      </c>
-      <c r="C91">
-        <v>4.4469300000000003E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>17748.5</v>
-      </c>
-      <c r="B92">
-        <f t="shared" si="1"/>
-        <v>269.20000000000073</v>
-      </c>
-      <c r="C92">
-        <v>5.6014099999999997E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>17811</v>
-      </c>
-      <c r="B93">
-        <f t="shared" si="1"/>
-        <v>62.5</v>
-      </c>
-      <c r="C93">
-        <v>4.03875E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>18091.2</v>
-      </c>
-      <c r="B94">
-        <f t="shared" si="1"/>
-        <v>280.20000000000073</v>
-      </c>
-      <c r="C94">
-        <v>4.33119E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>18704.400000000001</v>
-      </c>
-      <c r="B95">
-        <f t="shared" si="1"/>
-        <v>613.20000000000073</v>
-      </c>
-      <c r="C95">
-        <v>2.17065E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>18713.7</v>
-      </c>
-      <c r="B96">
-        <f t="shared" si="1"/>
-        <v>9.2999999999992724</v>
-      </c>
-      <c r="C96">
-        <v>0.105175</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>18714.900000000001</v>
-      </c>
-      <c r="B97">
-        <f t="shared" si="1"/>
-        <v>1.2000000000007276</v>
-      </c>
-      <c r="C97">
-        <v>1.8049800000000001E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>18795</v>
-      </c>
-      <c r="B98">
-        <f t="shared" si="1"/>
-        <v>80.099999999998545</v>
-      </c>
-      <c r="C98">
-        <v>4.1272099999999999E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>18876.8</v>
-      </c>
-      <c r="B99">
-        <f t="shared" si="1"/>
-        <v>81.799999999999272</v>
-      </c>
-      <c r="C99">
-        <v>4.1744999999999997E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>19005.900000000001</v>
-      </c>
-      <c r="B100">
-        <f t="shared" si="1"/>
-        <v>129.10000000000218</v>
-      </c>
-      <c r="C100">
-        <v>0.101578</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>19717.599999999999</v>
-      </c>
-      <c r="B101">
-        <f t="shared" si="1"/>
-        <v>711.69999999999709</v>
-      </c>
-      <c r="C101">
-        <v>4.0402599999999997E-2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>19838.8</v>
-      </c>
-      <c r="B102">
-        <f t="shared" si="1"/>
-        <v>121.20000000000073</v>
-      </c>
-      <c r="C102">
-        <v>4.01293E-2</v>
+      <c r="G26">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/DC/tektronix_parser.xlsx
+++ b/DC/tektronix_parser.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="26">
   <si>
     <t>T</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>количество</t>
+  </si>
+  <si>
+    <t>golay filter</t>
   </si>
 </sst>
 </file>
@@ -1627,10 +1630,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2109,6 +2112,90 @@
         <v>0</v>
       </c>
     </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30">
+        <v>79</v>
+      </c>
+      <c r="D30">
+        <v>19</v>
+      </c>
+      <c r="F30">
+        <v>8</v>
+      </c>
+      <c r="H30">
+        <v>8</v>
+      </c>
+      <c r="J30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+      <c r="F34">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DC/tektronix_parser.xlsx
+++ b/DC/tektronix_parser.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="25">
   <si>
     <t>T</t>
   </si>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>количество</t>
-  </si>
-  <si>
-    <t>golay filter</t>
   </si>
 </sst>
 </file>
@@ -1630,10 +1627,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2137,9 +2134,6 @@
       <c r="J29" t="s">
         <v>9</v>
       </c>
-      <c r="K29" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -2177,7 +2171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -2185,7 +2179,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -2194,6 +2188,60 @@
       </c>
       <c r="F34">
         <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" t="s">
+        <v>8</v>
+      </c>
+      <c r="J37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/DC/tektronix_parser.xlsx
+++ b/DC/tektronix_parser.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="25">
   <si>
     <t>T</t>
   </si>
@@ -1627,10 +1627,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N42"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2220,6 +2220,21 @@
       <c r="A38" t="s">
         <v>17</v>
       </c>
+      <c r="B38">
+        <v>78</v>
+      </c>
+      <c r="C38">
+        <v>58</v>
+      </c>
+      <c r="D38">
+        <v>20</v>
+      </c>
+      <c r="E38">
+        <v>11</v>
+      </c>
+      <c r="F38">
+        <v>9</v>
+      </c>
       <c r="J38">
         <v>5</v>
       </c>
@@ -2228,19 +2243,139 @@
       <c r="A39" t="s">
         <v>12</v>
       </c>
+      <c r="C39">
+        <v>7</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>13</v>
       </c>
+      <c r="C40">
+        <v>49</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>14</v>
       </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>11</v>
+      </c>
+      <c r="E41">
+        <v>9</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>8</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46">
+        <v>78</v>
+      </c>
+      <c r="C46">
+        <v>58</v>
+      </c>
+      <c r="D46">
+        <v>20</v>
+      </c>
+      <c r="E46">
+        <v>10</v>
+      </c>
+      <c r="F46">
+        <v>10</v>
+      </c>
+      <c r="G46">
+        <v>7</v>
+      </c>
+      <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="J46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>15</v>
       </c>
     </row>

--- a/DC/tektronix_parser.xlsx
+++ b/DC/tektronix_parser.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="295k" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="test_signal" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="30">
   <si>
     <t>T</t>
   </si>
@@ -91,6 +92,21 @@
   </si>
   <si>
     <t>количество</t>
+  </si>
+  <si>
+    <t>tau ns</t>
+  </si>
+  <si>
+    <t>f4_good</t>
+  </si>
+  <si>
+    <t>f4_bad</t>
+  </si>
+  <si>
+    <t>f5_good</t>
+  </si>
+  <si>
+    <t>f5_bad</t>
   </si>
 </sst>
 </file>
@@ -1629,8 +1645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2564,4 +2580,278 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>39</v>
+      </c>
+      <c r="C2">
+        <v>29</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>1080</v>
+      </c>
+      <c r="C14">
+        <v>604</v>
+      </c>
+      <c r="E14">
+        <v>258</v>
+      </c>
+      <c r="G14">
+        <v>133</v>
+      </c>
+      <c r="I14">
+        <v>52</v>
+      </c>
+      <c r="K14">
+        <v>20</v>
+      </c>
+      <c r="N14">
+        <f>SUM(C14:K14)/B14</f>
+        <v>0.98796296296296293</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>1080</v>
+      </c>
+      <c r="C15">
+        <v>596</v>
+      </c>
+      <c r="E15">
+        <v>246</v>
+      </c>
+      <c r="G15">
+        <v>134</v>
+      </c>
+      <c r="I15">
+        <v>53</v>
+      </c>
+      <c r="K15">
+        <v>29</v>
+      </c>
+      <c r="N15">
+        <f>SUM(C15:K15)/B15</f>
+        <v>0.97962962962962963</v>
+      </c>
+      <c r="O15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>1080</v>
+      </c>
+      <c r="C16">
+        <v>576</v>
+      </c>
+      <c r="E16">
+        <v>234</v>
+      </c>
+      <c r="G16">
+        <v>128</v>
+      </c>
+      <c r="I16">
+        <v>61</v>
+      </c>
+      <c r="K16">
+        <v>41</v>
+      </c>
+      <c r="N16">
+        <f>SUM(C16:K16)/B16</f>
+        <v>0.96296296296296291</v>
+      </c>
+      <c r="O16">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DC/tektronix_parser.xlsx
+++ b/DC/tektronix_parser.xlsx
@@ -2587,7 +2587,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DC/tektronix_parser.xlsx
+++ b/DC/tektronix_parser.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="295k" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
     <sheet name="test_signal" sheetId="4" r:id="rId4"/>
+    <sheet name="Лист5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="35">
   <si>
     <t>T</t>
   </si>
@@ -107,6 +108,21 @@
   </si>
   <si>
     <t>f5_bad</t>
+  </si>
+  <si>
+    <t>tau rec</t>
+  </si>
+  <si>
+    <t>tau ap</t>
+  </si>
+  <si>
+    <t>f_ksi</t>
+  </si>
+  <si>
+    <t>ksi</t>
+  </si>
+  <si>
+    <t>tau rec / tau ap</t>
   </si>
 </sst>
 </file>
@@ -536,7 +552,389 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист5!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист5!$F$2:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39155606413637217</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.458498938424592</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54833698960847232</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.67414953846125991</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86071448389979044</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1606961092786015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7066184472587207</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9383175078300776</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.4383895214284808</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>162.7342313896969</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="427270640"/>
+        <c:axId val="427270248"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="427270640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="427270248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="427270248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="427270640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1092,6 +1490,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1106,6 +2020,41 @@
       <xdr:colOff>147637</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2586,8 +3535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2854,4 +3803,149 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <f>A2/B2</f>
+        <v>0.34</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>$C$2 * EXP(- $C$2 * LN(1 - E2) ) / (1 - E2)</f>
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>0.1</v>
+      </c>
+      <c r="F3">
+        <f>$C$2 * EXP(- $C$2 * LN(1 - E3) ) / (1 - E3)</f>
+        <v>0.39155606413637217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>0.2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F7" si="0">$C$2 * EXP(- $C$2 * LN(1 - E4) ) / (1 - E4)</f>
+        <v>0.458498938424592</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>0.3</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0.54833698960847232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>0.4</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0.67414953846125991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>0.5</v>
+      </c>
+      <c r="F7">
+        <f>$C$2 * EXP(- $C$2 * LN(1 - E7) ) / (1 - E7)</f>
+        <v>0.86071448389979044</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>0.6</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:F12" si="1">$C$2 * EXP(- $C$2 * LN(1 - E8) ) / (1 - E8)</f>
+        <v>1.1606961092786015</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>0.7</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>1.7066184472587207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>0.8</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>2.9383175078300776</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>0.9</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>7.4383895214284808</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>0.99</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>162.7342313896969</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/DC/tektronix_parser.xlsx
+++ b/DC/tektronix_parser.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
     <sheet name="test_signal" sheetId="4" r:id="rId4"/>
     <sheet name="Лист5" sheetId="5" r:id="rId5"/>
+    <sheet name="Лист6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -161,12 +162,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -664,9 +666,6 @@
                 <c:pt idx="9">
                   <c:v>0.9</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.99</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -677,37 +676,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.34</c:v>
+                  <c:v>0.11333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.39155606413637217</c:v>
+                  <c:v>0.12743860293892859</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.458498938424592</c:v>
+                  <c:v>0.14529504712160596</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.54833698960847232</c:v>
+                  <c:v>0.16858354335696477</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.67414953846125991</c:v>
+                  <c:v>0.20014708542951243</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.86071448389979044</c:v>
+                  <c:v>0.24519092431149039</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1606961092786015</c:v>
+                  <c:v>0.31433847266142456</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.7066184472587207</c:v>
+                  <c:v>0.43300807830629096</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.9383175078300776</c:v>
+                  <c:v>0.68005535875161938</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.4383895214284808</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>162.7342313896969</c:v>
+                  <c:v>1.4712653117231624</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3807,10 +3803,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3840,18 +3836,18 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="C2">
         <f>A2/B2</f>
-        <v>0.34</v>
+        <v>0.11333333333333333</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
         <f>$C$2 * EXP(- $C$2 * LN(1 - E2) ) / (1 - E2)</f>
-        <v>0.34</v>
+        <v>0.11333333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3859,8 +3855,8 @@
         <v>0.1</v>
       </c>
       <c r="F3">
-        <f>$C$2 * EXP(- $C$2 * LN(1 - E3) ) / (1 - E3)</f>
-        <v>0.39155606413637217</v>
+        <f t="shared" ref="F3:F12" si="0">$C$2 * EXP(- $C$2 * LN(1 - E3) ) / (1 - E3)</f>
+        <v>0.12743860293892859</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3868,8 +3864,8 @@
         <v>0.2</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F7" si="0">$C$2 * EXP(- $C$2 * LN(1 - E4) ) / (1 - E4)</f>
-        <v>0.458498938424592</v>
+        <f t="shared" si="0"/>
+        <v>0.14529504712160596</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3878,7 +3874,7 @@
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>0.54833698960847232</v>
+        <v>0.16858354335696477</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3887,7 +3883,7 @@
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>0.67414953846125991</v>
+        <v>0.20014708542951243</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3895,8 +3891,8 @@
         <v>0.5</v>
       </c>
       <c r="F7">
-        <f>$C$2 * EXP(- $C$2 * LN(1 - E7) ) / (1 - E7)</f>
-        <v>0.86071448389979044</v>
+        <f t="shared" si="0"/>
+        <v>0.24519092431149039</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3904,8 +3900,8 @@
         <v>0.6</v>
       </c>
       <c r="F8">
-        <f t="shared" ref="F8:F12" si="1">$C$2 * EXP(- $C$2 * LN(1 - E8) ) / (1 - E8)</f>
-        <v>1.1606961092786015</v>
+        <f t="shared" si="0"/>
+        <v>0.31433847266142456</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3913,8 +3909,8 @@
         <v>0.7</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
-        <v>1.7066184472587207</v>
+        <f t="shared" si="0"/>
+        <v>0.43300807830629096</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3922,8 +3918,8 @@
         <v>0.8</v>
       </c>
       <c r="F10">
-        <f t="shared" si="1"/>
-        <v>2.9383175078300776</v>
+        <f t="shared" si="0"/>
+        <v>0.68005535875161938</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -3931,21 +3927,5556 @@
         <v>0.9</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
-        <v>7.4383895214284808</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E12">
-        <v>0.99</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
-        <v>162.7342313896969</v>
+        <f t="shared" si="0"/>
+        <v>1.4712653117231624</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L307"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>9262</v>
+      </c>
+      <c r="L1">
+        <f>H1/$J$1 * 0.1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f t="shared" ref="L2:L65" si="0">H2/$J$1 * 0.1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1.5950099999999999E-4</v>
+      </c>
+      <c r="E3">
+        <v>4.5240000000000002E-2</v>
+      </c>
+      <c r="H3">
+        <v>419</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>4.5238609371626003E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4.2900000000000004E-3</v>
+      </c>
+      <c r="C4" s="5">
+        <v>4.2863500000000002E-4</v>
+      </c>
+      <c r="E4">
+        <v>7.6329999999999995E-2</v>
+      </c>
+      <c r="H4">
+        <v>707</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>7.6333405312027638E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>6.5799999999999999E-3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>6.5817999999999996E-4</v>
+      </c>
+      <c r="E5">
+        <v>6.5100000000000005E-2</v>
+      </c>
+      <c r="H5">
+        <v>603</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>6.5104729000215944E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>8.4700000000000001E-3</v>
+      </c>
+      <c r="C6" s="5">
+        <v>8.4661199999999995E-4</v>
+      </c>
+      <c r="E6">
+        <v>5.3440000000000001E-2</v>
+      </c>
+      <c r="H6">
+        <v>495</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>5.3444180522565325E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>9.8399999999999998E-3</v>
+      </c>
+      <c r="C7" s="5">
+        <v>9.8403399999999995E-4</v>
+      </c>
+      <c r="E7">
+        <v>3.8980000000000001E-2</v>
+      </c>
+      <c r="H7">
+        <v>361</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>3.8976462966961779E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1.116E-2</v>
+      </c>
+      <c r="C8">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="E8">
+        <v>3.746E-2</v>
+      </c>
+      <c r="H8">
+        <v>347</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>3.7464910386525588E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1.24E-2</v>
+      </c>
+      <c r="C9">
+        <v>1.24E-3</v>
+      </c>
+      <c r="E9">
+        <v>3.5200000000000002E-2</v>
+      </c>
+      <c r="H9">
+        <v>326</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>3.5197581515871304E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1.337E-2</v>
+      </c>
+      <c r="C10">
+        <v>1.34E-3</v>
+      </c>
+      <c r="E10">
+        <v>2.7529999999999999E-2</v>
+      </c>
+      <c r="H10">
+        <v>255</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>2.7531850572230622E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1.434E-2</v>
+      </c>
+      <c r="C11">
+        <v>1.4300000000000001E-3</v>
+      </c>
+      <c r="E11">
+        <v>2.7320000000000001E-2</v>
+      </c>
+      <c r="H11">
+        <v>253</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>2.7315914489311165E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1.519E-2</v>
+      </c>
+      <c r="C12">
+        <v>1.5200000000000001E-3</v>
+      </c>
+      <c r="E12">
+        <v>2.418E-2</v>
+      </c>
+      <c r="H12">
+        <v>224</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>2.4184841286979055E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1.5970000000000002E-2</v>
+      </c>
+      <c r="C13">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="E13">
+        <v>2.213E-2</v>
+      </c>
+      <c r="H13">
+        <v>205</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>2.2133448499244224E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1.6840000000000001E-2</v>
+      </c>
+      <c r="C14">
+        <v>1.6800000000000001E-3</v>
+      </c>
+      <c r="E14">
+        <v>2.4830000000000001E-2</v>
+      </c>
+      <c r="H14">
+        <v>230</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>2.4832649535737423E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1.763E-2</v>
+      </c>
+      <c r="C15">
+        <v>1.7600000000000001E-3</v>
+      </c>
+      <c r="E15">
+        <v>2.2239999999999999E-2</v>
+      </c>
+      <c r="H15">
+        <v>206</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>2.2241416540703953E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1.839E-2</v>
+      </c>
+      <c r="C16">
+        <v>1.8400000000000001E-3</v>
+      </c>
+      <c r="E16">
+        <v>2.1489999999999999E-2</v>
+      </c>
+      <c r="H16">
+        <v>199</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>2.1485640250485855E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1.9120000000000002E-2</v>
+      </c>
+      <c r="C17">
+        <v>1.91E-3</v>
+      </c>
+      <c r="E17">
+        <v>2.095E-2</v>
+      </c>
+      <c r="H17">
+        <v>194</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>2.094580004318722E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1.9779999999999999E-2</v>
+      </c>
+      <c r="C18">
+        <v>1.98E-3</v>
+      </c>
+      <c r="E18">
+        <v>1.8679999999999999E-2</v>
+      </c>
+      <c r="H18">
+        <v>173</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>1.8678471172532932E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2.0420000000000001E-2</v>
+      </c>
+      <c r="C19">
+        <v>2.0400000000000001E-3</v>
+      </c>
+      <c r="E19">
+        <v>1.814E-2</v>
+      </c>
+      <c r="H19">
+        <v>168</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>1.8138630965234292E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2.104E-2</v>
+      </c>
+      <c r="C20">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="E20">
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="H20">
+        <v>163</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>1.7598790757935652E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2.1579999999999998E-2</v>
+      </c>
+      <c r="C21">
+        <v>2.16E-3</v>
+      </c>
+      <c r="E21">
+        <v>1.512E-2</v>
+      </c>
+      <c r="H21">
+        <v>140</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>1.5115525804361909E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2.2079999999999999E-2</v>
+      </c>
+      <c r="C22">
+        <v>2.2100000000000002E-3</v>
+      </c>
+      <c r="E22">
+        <v>1.436E-2</v>
+      </c>
+      <c r="H22">
+        <v>133</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>1.4359749514143815E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2.257E-2</v>
+      </c>
+      <c r="C23">
+        <v>2.2599999999999999E-3</v>
+      </c>
+      <c r="E23">
+        <v>1.371E-2</v>
+      </c>
+      <c r="H23">
+        <v>127</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>1.3711941265385447E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2.315E-2</v>
+      </c>
+      <c r="C24">
+        <v>2.32E-3</v>
+      </c>
+      <c r="E24">
+        <v>1.6629999999999999E-2</v>
+      </c>
+      <c r="H24">
+        <v>154</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>1.6627078384798101E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2.3650000000000001E-2</v>
+      </c>
+      <c r="C25">
+        <v>2.3700000000000001E-3</v>
+      </c>
+      <c r="E25">
+        <v>1.414E-2</v>
+      </c>
+      <c r="H25">
+        <v>131</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>1.414381343122436E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2.4150000000000001E-2</v>
+      </c>
+      <c r="C26">
+        <v>2.4099999999999998E-3</v>
+      </c>
+      <c r="E26">
+        <v>1.414E-2</v>
+      </c>
+      <c r="H26">
+        <v>131</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="0"/>
+        <v>1.414381343122436E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2.4549999999999999E-2</v>
+      </c>
+      <c r="C27">
+        <v>2.4499999999999999E-3</v>
+      </c>
+      <c r="E27">
+        <v>1.123E-2</v>
+      </c>
+      <c r="H27">
+        <v>104</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="0"/>
+        <v>1.1228676311811703E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2.495E-2</v>
+      </c>
+      <c r="C28">
+        <v>2.49E-3</v>
+      </c>
+      <c r="E28">
+        <v>1.1339999999999999E-2</v>
+      </c>
+      <c r="H28">
+        <v>105</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>1.1336644353271432E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2.5409999999999999E-2</v>
+      </c>
+      <c r="C29">
+        <v>2.5400000000000002E-3</v>
+      </c>
+      <c r="E29">
+        <v>1.328E-2</v>
+      </c>
+      <c r="H29">
+        <v>123</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="0"/>
+        <v>1.3280069099546536E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2.5870000000000001E-2</v>
+      </c>
+      <c r="C30">
+        <v>2.5899999999999999E-3</v>
+      </c>
+      <c r="E30">
+        <v>1.306E-2</v>
+      </c>
+      <c r="H30">
+        <v>121</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="0"/>
+        <v>1.306413301662708E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2.6179999999999998E-2</v>
+      </c>
+      <c r="C31">
+        <v>2.6199999999999999E-3</v>
+      </c>
+      <c r="E31">
+        <v>8.6400000000000001E-3</v>
+      </c>
+      <c r="H31">
+        <v>80</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="0"/>
+        <v>8.6374433167782339E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2.6530000000000001E-2</v>
+      </c>
+      <c r="C32">
+        <v>2.65E-3</v>
+      </c>
+      <c r="E32">
+        <v>9.9299999999999996E-3</v>
+      </c>
+      <c r="H32">
+        <v>92</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="0"/>
+        <v>9.9330598142949702E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2.6859999999999998E-2</v>
+      </c>
+      <c r="C33">
+        <v>2.6900000000000001E-3</v>
+      </c>
+      <c r="E33">
+        <v>9.2899999999999996E-3</v>
+      </c>
+      <c r="H33">
+        <v>86</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="0"/>
+        <v>9.2852515655366015E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2.7099999999999999E-2</v>
+      </c>
+      <c r="C34">
+        <v>2.7100000000000002E-3</v>
+      </c>
+      <c r="E34">
+        <v>6.9100000000000003E-3</v>
+      </c>
+      <c r="H34">
+        <v>64</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="0"/>
+        <v>6.9099546534225878E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2.7369999999999998E-2</v>
+      </c>
+      <c r="C35">
+        <v>2.7399999999999998E-3</v>
+      </c>
+      <c r="E35">
+        <v>7.6699999999999997E-3</v>
+      </c>
+      <c r="H35">
+        <v>71</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="0"/>
+        <v>7.665730943640682E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2.7609999999999999E-2</v>
+      </c>
+      <c r="C36">
+        <v>2.7599999999999999E-3</v>
+      </c>
+      <c r="E36">
+        <v>6.9100000000000003E-3</v>
+      </c>
+      <c r="H36">
+        <v>64</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="0"/>
+        <v>6.9099546534225878E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2.7879999999999999E-2</v>
+      </c>
+      <c r="C37">
+        <v>2.7899999999999999E-3</v>
+      </c>
+      <c r="E37">
+        <v>7.45E-3</v>
+      </c>
+      <c r="H37">
+        <v>69</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="0"/>
+        <v>7.4497948607212265E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2.8209999999999999E-2</v>
+      </c>
+      <c r="C38">
+        <v>2.82E-3</v>
+      </c>
+      <c r="E38">
+        <v>9.3900000000000008E-3</v>
+      </c>
+      <c r="H38">
+        <v>87</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="0"/>
+        <v>9.3932196069963303E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2.843E-2</v>
+      </c>
+      <c r="C39">
+        <v>2.8400000000000001E-3</v>
+      </c>
+      <c r="E39">
+        <v>6.2599999999999999E-3</v>
+      </c>
+      <c r="H39">
+        <v>58</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="0"/>
+        <v>6.2621464046642202E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2.8639999999999999E-2</v>
+      </c>
+      <c r="C40">
+        <v>2.8600000000000001E-3</v>
+      </c>
+      <c r="E40">
+        <v>5.94E-3</v>
+      </c>
+      <c r="H40">
+        <v>55</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="0"/>
+        <v>5.9382422802850359E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2.8899999999999999E-2</v>
+      </c>
+      <c r="C41">
+        <v>2.8900000000000002E-3</v>
+      </c>
+      <c r="E41">
+        <v>7.45E-3</v>
+      </c>
+      <c r="H41">
+        <v>69</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="0"/>
+        <v>7.4497948607212265E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2.9159999999999998E-2</v>
+      </c>
+      <c r="C42">
+        <v>2.9199999999999999E-3</v>
+      </c>
+      <c r="E42">
+        <v>7.45E-3</v>
+      </c>
+      <c r="H42">
+        <v>69</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="0"/>
+        <v>7.4497948607212265E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2.9350000000000001E-2</v>
+      </c>
+      <c r="C43">
+        <v>2.9399999999999999E-3</v>
+      </c>
+      <c r="E43">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="H43">
+        <v>50</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="0"/>
+        <v>5.3984020729863961E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2.9569999999999999E-2</v>
+      </c>
+      <c r="C44">
+        <v>2.96E-3</v>
+      </c>
+      <c r="E44">
+        <v>6.0499999999999998E-3</v>
+      </c>
+      <c r="H44">
+        <v>56</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="0"/>
+        <v>6.0462103217447636E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2.98E-2</v>
+      </c>
+      <c r="C45">
+        <v>2.98E-3</v>
+      </c>
+      <c r="E45">
+        <v>6.6899999999999998E-3</v>
+      </c>
+      <c r="H45">
+        <v>62</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="0"/>
+        <v>6.6940185705031312E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2.997E-2</v>
+      </c>
+      <c r="C46">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E46">
+        <v>4.8599999999999997E-3</v>
+      </c>
+      <c r="H46">
+        <v>45</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="0"/>
+        <v>4.8585618656877568E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>3.015E-2</v>
+      </c>
+      <c r="C47">
+        <v>3.0200000000000001E-3</v>
+      </c>
+      <c r="E47">
+        <v>5.0699999999999999E-3</v>
+      </c>
+      <c r="H47">
+        <v>47</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="0"/>
+        <v>5.0744979486072128E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>3.0349999999999999E-2</v>
+      </c>
+      <c r="C48">
+        <v>3.0400000000000002E-3</v>
+      </c>
+      <c r="E48">
+        <v>5.7200000000000003E-3</v>
+      </c>
+      <c r="H48">
+        <v>53</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="0"/>
+        <v>5.7223061973655793E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>3.0550000000000001E-2</v>
+      </c>
+      <c r="C49">
+        <v>3.0500000000000002E-3</v>
+      </c>
+      <c r="E49">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="H49">
+        <v>50</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="0"/>
+        <v>5.3984020729863961E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>3.0689999999999999E-2</v>
+      </c>
+      <c r="C50">
+        <v>3.0699999999999998E-3</v>
+      </c>
+      <c r="E50">
+        <v>4.2100000000000002E-3</v>
+      </c>
+      <c r="H50">
+        <v>39</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="0"/>
+        <v>4.2107536169293892E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>3.0870000000000002E-2</v>
+      </c>
+      <c r="C51">
+        <v>3.0899999999999999E-3</v>
+      </c>
+      <c r="E51">
+        <v>5.0699999999999999E-3</v>
+      </c>
+      <c r="H51">
+        <v>47</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="0"/>
+        <v>5.0744979486072128E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>3.1019999999999999E-2</v>
+      </c>
+      <c r="C52">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="E52">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="H52">
+        <v>38</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="0"/>
+        <v>4.1027855754696609E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>3.117E-2</v>
+      </c>
+      <c r="C53">
+        <v>3.1199999999999999E-3</v>
+      </c>
+      <c r="E53">
+        <v>4.3200000000000001E-3</v>
+      </c>
+      <c r="H53">
+        <v>40</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="0"/>
+        <v>4.318721658389117E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>3.1329999999999997E-2</v>
+      </c>
+      <c r="C54">
+        <v>3.13E-3</v>
+      </c>
+      <c r="E54">
+        <v>4.64E-3</v>
+      </c>
+      <c r="H54">
+        <v>43</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="0"/>
+        <v>4.6426257827683007E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>3.1489999999999997E-2</v>
+      </c>
+      <c r="C55">
+        <v>3.15E-3</v>
+      </c>
+      <c r="E55">
+        <v>4.4299999999999999E-3</v>
+      </c>
+      <c r="H55">
+        <v>41</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="0"/>
+        <v>4.4266896998488453E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="C56">
+        <v>3.16E-3</v>
+      </c>
+      <c r="E56">
+        <v>3.2399999999999998E-3</v>
+      </c>
+      <c r="H56">
+        <v>30</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="0"/>
+        <v>3.2390412437918379E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>3.177E-2</v>
+      </c>
+      <c r="C57">
+        <v>3.1800000000000001E-3</v>
+      </c>
+      <c r="E57">
+        <v>4.64E-3</v>
+      </c>
+      <c r="H57">
+        <v>43</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="0"/>
+        <v>4.6426257827683007E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>3.1910000000000001E-2</v>
+      </c>
+      <c r="C58">
+        <v>3.1900000000000001E-3</v>
+      </c>
+      <c r="E58">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="H58">
+        <v>38</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="0"/>
+        <v>4.1027855754696609E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>3.2039999999999999E-2</v>
+      </c>
+      <c r="C59">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="E59">
+        <v>3.5599999999999998E-3</v>
+      </c>
+      <c r="H59">
+        <v>33</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="0"/>
+        <v>3.5629453681710216E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>3.2199999999999999E-2</v>
+      </c>
+      <c r="C60">
+        <v>3.2200000000000002E-3</v>
+      </c>
+      <c r="E60">
+        <v>4.64E-3</v>
+      </c>
+      <c r="H60">
+        <v>43</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="0"/>
+        <v>4.6426257827683007E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>3.2329999999999998E-2</v>
+      </c>
+      <c r="C61">
+        <v>3.2299999999999998E-3</v>
+      </c>
+      <c r="E61">
+        <v>3.6700000000000001E-3</v>
+      </c>
+      <c r="H61">
+        <v>34</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="0"/>
+        <v>3.6709134096307499E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>3.2410000000000001E-2</v>
+      </c>
+      <c r="C62">
+        <v>3.2399999999999998E-3</v>
+      </c>
+      <c r="E62">
+        <v>2.16E-3</v>
+      </c>
+      <c r="H62">
+        <v>20</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="0"/>
+        <v>2.1593608291945585E-4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="C63">
+        <v>3.2499999999999999E-3</v>
+      </c>
+      <c r="E63">
+        <v>2.5899999999999999E-3</v>
+      </c>
+      <c r="H63">
+        <v>24</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="0"/>
+        <v>2.5912329950334703E-4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>3.2590000000000001E-2</v>
+      </c>
+      <c r="C64">
+        <v>3.2599999999999999E-3</v>
+      </c>
+      <c r="E64">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="H64">
+        <v>25</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="0"/>
+        <v>2.699201036493198E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>3.2680000000000001E-2</v>
+      </c>
+      <c r="C65">
+        <v>3.2699999999999999E-3</v>
+      </c>
+      <c r="E65">
+        <v>2.5899999999999999E-3</v>
+      </c>
+      <c r="H65">
+        <v>24</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="0"/>
+        <v>2.5912329950334703E-4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>3.2750000000000001E-2</v>
+      </c>
+      <c r="C66">
+        <v>3.2699999999999999E-3</v>
+      </c>
+      <c r="E66">
+        <v>1.73E-3</v>
+      </c>
+      <c r="H66">
+        <v>16</v>
+      </c>
+      <c r="L66">
+        <f t="shared" ref="L66:L129" si="1">H66/$J$1 * 0.1</f>
+        <v>1.7274886633556469E-4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>3.2890000000000003E-2</v>
+      </c>
+      <c r="C67">
+        <v>3.29E-3</v>
+      </c>
+      <c r="E67">
+        <v>3.9899999999999996E-3</v>
+      </c>
+      <c r="H67">
+        <v>37</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="1"/>
+        <v>3.9948175340099332E-4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>3.2960000000000003E-2</v>
+      </c>
+      <c r="C68">
+        <v>3.3E-3</v>
+      </c>
+      <c r="E68">
+        <v>2.16E-3</v>
+      </c>
+      <c r="H68">
+        <v>20</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="1"/>
+        <v>2.1593608291945585E-4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>3.3050000000000003E-2</v>
+      </c>
+      <c r="C69">
+        <v>3.31E-3</v>
+      </c>
+      <c r="E69">
+        <v>2.5899999999999999E-3</v>
+      </c>
+      <c r="H69">
+        <v>24</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="1"/>
+        <v>2.5912329950334703E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>3.3119999999999997E-2</v>
+      </c>
+      <c r="C70">
+        <v>3.31E-3</v>
+      </c>
+      <c r="E70">
+        <v>1.8400000000000001E-3</v>
+      </c>
+      <c r="H70">
+        <v>17</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="1"/>
+        <v>1.835456704815375E-4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>3.32E-2</v>
+      </c>
+      <c r="C71">
+        <v>3.32E-3</v>
+      </c>
+      <c r="E71">
+        <v>2.2699999999999999E-3</v>
+      </c>
+      <c r="H71">
+        <v>21</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="1"/>
+        <v>2.2673288706542865E-4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>3.3250000000000002E-2</v>
+      </c>
+      <c r="C72">
+        <v>3.32E-3</v>
+      </c>
+      <c r="E72">
+        <v>1.4E-3</v>
+      </c>
+      <c r="H72">
+        <v>13</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="1"/>
+        <v>1.4035845389764629E-4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>3.3300000000000003E-2</v>
+      </c>
+      <c r="C73">
+        <v>3.3300000000000001E-3</v>
+      </c>
+      <c r="E73">
+        <v>1.6199999999999999E-3</v>
+      </c>
+      <c r="H73">
+        <v>15</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="1"/>
+        <v>1.6195206218959189E-4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>3.338E-2</v>
+      </c>
+      <c r="C74">
+        <v>3.3400000000000001E-3</v>
+      </c>
+      <c r="E74">
+        <v>2.16E-3</v>
+      </c>
+      <c r="H74">
+        <v>20</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="1"/>
+        <v>2.1593608291945585E-4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>3.347E-2</v>
+      </c>
+      <c r="C75">
+        <v>3.3500000000000001E-3</v>
+      </c>
+      <c r="E75">
+        <v>2.48E-3</v>
+      </c>
+      <c r="H75">
+        <v>23</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="1"/>
+        <v>2.4832649535737425E-4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>3.3520000000000001E-2</v>
+      </c>
+      <c r="C76">
+        <v>3.3500000000000001E-3</v>
+      </c>
+      <c r="E76">
+        <v>1.4E-3</v>
+      </c>
+      <c r="H76">
+        <v>13</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="1"/>
+        <v>1.4035845389764629E-4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>3.3610000000000001E-2</v>
+      </c>
+      <c r="C77">
+        <v>3.3600000000000001E-3</v>
+      </c>
+      <c r="E77">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="H77">
+        <v>25</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="1"/>
+        <v>2.699201036493198E-4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>3.3680000000000002E-2</v>
+      </c>
+      <c r="C78">
+        <v>3.3700000000000002E-3</v>
+      </c>
+      <c r="E78">
+        <v>1.9400000000000001E-3</v>
+      </c>
+      <c r="H78">
+        <v>18</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="1"/>
+        <v>1.9434247462751027E-4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>3.3770000000000001E-2</v>
+      </c>
+      <c r="C79">
+        <v>3.3800000000000002E-3</v>
+      </c>
+      <c r="E79">
+        <v>2.3800000000000002E-3</v>
+      </c>
+      <c r="H79">
+        <v>22</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="1"/>
+        <v>2.3752969121140145E-4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>3.3849999999999998E-2</v>
+      </c>
+      <c r="C80">
+        <v>3.3800000000000002E-3</v>
+      </c>
+      <c r="E80">
+        <v>2.2699999999999999E-3</v>
+      </c>
+      <c r="H80">
+        <v>21</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="1"/>
+        <v>2.2673288706542865E-4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>3.3910000000000003E-2</v>
+      </c>
+      <c r="C81">
+        <v>3.3899999999999998E-3</v>
+      </c>
+      <c r="E81">
+        <v>1.73E-3</v>
+      </c>
+      <c r="H81">
+        <v>16</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="1"/>
+        <v>1.7274886633556469E-4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>3.3980000000000003E-2</v>
+      </c>
+      <c r="C82">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="E82">
+        <v>2.0500000000000002E-3</v>
+      </c>
+      <c r="H82">
+        <v>19</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="1"/>
+        <v>2.0513927877348305E-4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>3.4020000000000002E-2</v>
+      </c>
+      <c r="C83">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="E83">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="H83">
+        <v>12</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="1"/>
+        <v>1.2956164975167351E-4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>3.4070000000000003E-2</v>
+      </c>
+      <c r="C84">
+        <v>3.4099999999999998E-3</v>
+      </c>
+      <c r="E84">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="H84">
+        <v>12</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="1"/>
+        <v>1.2956164975167351E-4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>3.4110000000000001E-2</v>
+      </c>
+      <c r="C85">
+        <v>3.4099999999999998E-3</v>
+      </c>
+      <c r="E85">
+        <v>1.1900000000000001E-3</v>
+      </c>
+      <c r="H85">
+        <v>11</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="1"/>
+        <v>1.1876484560570073E-4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>3.4169999999999999E-2</v>
+      </c>
+      <c r="C86">
+        <v>3.4199999999999999E-3</v>
+      </c>
+      <c r="E86">
+        <v>1.6199999999999999E-3</v>
+      </c>
+      <c r="H86">
+        <v>15</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="1"/>
+        <v>1.6195206218959189E-4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>3.4200000000000001E-2</v>
+      </c>
+      <c r="C87">
+        <v>3.4199999999999999E-3</v>
+      </c>
+      <c r="E87" s="5">
+        <v>8.6374399999999995E-4</v>
+      </c>
+      <c r="H87">
+        <v>8</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="1"/>
+        <v>8.6374433167782347E-5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>3.422E-2</v>
+      </c>
+      <c r="C88">
+        <v>3.4199999999999999E-3</v>
+      </c>
+      <c r="E88" s="5">
+        <v>6.4780800000000004E-4</v>
+      </c>
+      <c r="H88">
+        <v>6</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="1"/>
+        <v>6.4780824875836757E-5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>3.4259999999999999E-2</v>
+      </c>
+      <c r="C89">
+        <v>3.4299999999999999E-3</v>
+      </c>
+      <c r="E89">
+        <v>1.08E-3</v>
+      </c>
+      <c r="H89">
+        <v>10</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="1"/>
+        <v>1.0796804145972792E-4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>3.4299999999999997E-2</v>
+      </c>
+      <c r="C90">
+        <v>3.4299999999999999E-3</v>
+      </c>
+      <c r="E90">
+        <v>1.08E-3</v>
+      </c>
+      <c r="H90">
+        <v>10</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="1"/>
+        <v>1.0796804145972792E-4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>3.4320000000000003E-2</v>
+      </c>
+      <c r="C91">
+        <v>3.4299999999999999E-3</v>
+      </c>
+      <c r="E91" s="5">
+        <v>5.3983999999999998E-4</v>
+      </c>
+      <c r="H91">
+        <v>5</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="1"/>
+        <v>5.3984020729863962E-5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>3.4360000000000002E-2</v>
+      </c>
+      <c r="C92">
+        <v>3.4399999999999999E-3</v>
+      </c>
+      <c r="E92">
+        <v>1.08E-3</v>
+      </c>
+      <c r="H92">
+        <v>10</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="1"/>
+        <v>1.0796804145972792E-4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>3.4380000000000001E-2</v>
+      </c>
+      <c r="C93">
+        <v>3.4399999999999999E-3</v>
+      </c>
+      <c r="E93" s="5">
+        <v>6.4780800000000004E-4</v>
+      </c>
+      <c r="H93">
+        <v>6</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="1"/>
+        <v>6.4780824875836757E-5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>3.4389999999999997E-2</v>
+      </c>
+      <c r="C94">
+        <v>3.4399999999999999E-3</v>
+      </c>
+      <c r="E94" s="5">
+        <v>2.1593599999999999E-4</v>
+      </c>
+      <c r="H94">
+        <v>2</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="1"/>
+        <v>2.1593608291945587E-5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>3.4419999999999999E-2</v>
+      </c>
+      <c r="C95">
+        <v>3.4399999999999999E-3</v>
+      </c>
+      <c r="E95" s="5">
+        <v>9.7171200000000001E-4</v>
+      </c>
+      <c r="H95">
+        <v>9</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="1"/>
+        <v>9.7171237313755136E-5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>3.4459999999999998E-2</v>
+      </c>
+      <c r="C96">
+        <v>3.4499999999999999E-3</v>
+      </c>
+      <c r="E96">
+        <v>1.08E-3</v>
+      </c>
+      <c r="H96">
+        <v>10</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="1"/>
+        <v>1.0796804145972792E-4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>3.449E-2</v>
+      </c>
+      <c r="C97">
+        <v>3.4499999999999999E-3</v>
+      </c>
+      <c r="E97" s="5">
+        <v>9.7171200000000001E-4</v>
+      </c>
+      <c r="H97">
+        <v>9</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="1"/>
+        <v>9.7171237313755136E-5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>3.4509999999999999E-2</v>
+      </c>
+      <c r="C98">
+        <v>3.4499999999999999E-3</v>
+      </c>
+      <c r="E98" s="5">
+        <v>5.3983999999999998E-4</v>
+      </c>
+      <c r="H98">
+        <v>5</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="1"/>
+        <v>5.3984020729863962E-5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>3.4529999999999998E-2</v>
+      </c>
+      <c r="C99">
+        <v>3.4499999999999999E-3</v>
+      </c>
+      <c r="E99" s="5">
+        <v>6.4780800000000004E-4</v>
+      </c>
+      <c r="H99">
+        <v>6</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="1"/>
+        <v>6.4780824875836757E-5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>3.456E-2</v>
+      </c>
+      <c r="C100">
+        <v>3.46E-3</v>
+      </c>
+      <c r="E100" s="5">
+        <v>7.55776E-4</v>
+      </c>
+      <c r="H100">
+        <v>7</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="1"/>
+        <v>7.5577629021809546E-5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>3.4590000000000003E-2</v>
+      </c>
+      <c r="C101">
+        <v>3.46E-3</v>
+      </c>
+      <c r="E101" s="5">
+        <v>7.55776E-4</v>
+      </c>
+      <c r="H101">
+        <v>7</v>
+      </c>
+      <c r="L101">
+        <f t="shared" si="1"/>
+        <v>7.5577629021809546E-5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>3.4610000000000002E-2</v>
+      </c>
+      <c r="C102">
+        <v>3.46E-3</v>
+      </c>
+      <c r="E102" s="5">
+        <v>6.4780800000000004E-4</v>
+      </c>
+      <c r="H102">
+        <v>6</v>
+      </c>
+      <c r="L102">
+        <f t="shared" si="1"/>
+        <v>6.4780824875836757E-5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>3.465E-2</v>
+      </c>
+      <c r="C103">
+        <v>3.46E-3</v>
+      </c>
+      <c r="E103">
+        <v>1.08E-3</v>
+      </c>
+      <c r="H103">
+        <v>10</v>
+      </c>
+      <c r="L103">
+        <f t="shared" si="1"/>
+        <v>1.0796804145972792E-4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>3.4680000000000002E-2</v>
+      </c>
+      <c r="C104">
+        <v>3.47E-3</v>
+      </c>
+      <c r="E104" s="5">
+        <v>8.6374399999999995E-4</v>
+      </c>
+      <c r="H104">
+        <v>8</v>
+      </c>
+      <c r="L104">
+        <f t="shared" si="1"/>
+        <v>8.6374433167782347E-5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>3.4689999999999999E-2</v>
+      </c>
+      <c r="C105">
+        <v>3.47E-3</v>
+      </c>
+      <c r="E105" s="5">
+        <v>2.1593599999999999E-4</v>
+      </c>
+      <c r="H105">
+        <v>2</v>
+      </c>
+      <c r="L105">
+        <f t="shared" si="1"/>
+        <v>2.1593608291945587E-5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>3.4709999999999998E-2</v>
+      </c>
+      <c r="C106">
+        <v>3.47E-3</v>
+      </c>
+      <c r="E106" s="5">
+        <v>5.3983999999999998E-4</v>
+      </c>
+      <c r="H106">
+        <v>5</v>
+      </c>
+      <c r="L106">
+        <f t="shared" si="1"/>
+        <v>5.3984020729863962E-5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>3.4729999999999997E-2</v>
+      </c>
+      <c r="C107">
+        <v>3.47E-3</v>
+      </c>
+      <c r="E107" s="5">
+        <v>6.4780800000000004E-4</v>
+      </c>
+      <c r="H107">
+        <v>6</v>
+      </c>
+      <c r="L107">
+        <f t="shared" si="1"/>
+        <v>6.4780824875836757E-5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>3.4729999999999997E-2</v>
+      </c>
+      <c r="C108">
+        <v>3.47E-3</v>
+      </c>
+      <c r="E108" s="5">
+        <v>1.0796799999999999E-4</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="L108">
+        <f t="shared" si="1"/>
+        <v>1.0796804145972793E-5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>3.4759999999999999E-2</v>
+      </c>
+      <c r="C109">
+        <v>3.48E-3</v>
+      </c>
+      <c r="E109" s="5">
+        <v>6.4780800000000004E-4</v>
+      </c>
+      <c r="H109">
+        <v>6</v>
+      </c>
+      <c r="L109">
+        <f t="shared" si="1"/>
+        <v>6.4780824875836757E-5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>3.4770000000000002E-2</v>
+      </c>
+      <c r="C110">
+        <v>3.48E-3</v>
+      </c>
+      <c r="E110" s="5">
+        <v>5.3983999999999998E-4</v>
+      </c>
+      <c r="H110">
+        <v>5</v>
+      </c>
+      <c r="L110">
+        <f t="shared" si="1"/>
+        <v>5.3984020729863962E-5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="C111">
+        <v>3.48E-3</v>
+      </c>
+      <c r="E111" s="5">
+        <v>7.55776E-4</v>
+      </c>
+      <c r="H111">
+        <v>7</v>
+      </c>
+      <c r="L111">
+        <f t="shared" si="1"/>
+        <v>7.5577629021809546E-5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>3.4819999999999997E-2</v>
+      </c>
+      <c r="C112">
+        <v>3.48E-3</v>
+      </c>
+      <c r="E112" s="5">
+        <v>6.4780800000000004E-4</v>
+      </c>
+      <c r="H112">
+        <v>6</v>
+      </c>
+      <c r="L112">
+        <f t="shared" si="1"/>
+        <v>6.4780824875836757E-5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>3.4840000000000003E-2</v>
+      </c>
+      <c r="C113">
+        <v>3.48E-3</v>
+      </c>
+      <c r="E113" s="5">
+        <v>5.3983999999999998E-4</v>
+      </c>
+      <c r="H113">
+        <v>5</v>
+      </c>
+      <c r="L113">
+        <f t="shared" si="1"/>
+        <v>5.3984020729863962E-5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>3.4849999999999999E-2</v>
+      </c>
+      <c r="C114">
+        <v>3.48E-3</v>
+      </c>
+      <c r="E114" s="5">
+        <v>1.0796799999999999E-4</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <f t="shared" si="1"/>
+        <v>1.0796804145972793E-5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>3.4849999999999999E-2</v>
+      </c>
+      <c r="C115">
+        <v>3.49E-3</v>
+      </c>
+      <c r="E115" s="5">
+        <v>1.0796799999999999E-4</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="L115">
+        <f t="shared" si="1"/>
+        <v>1.0796804145972793E-5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>3.4860000000000002E-2</v>
+      </c>
+      <c r="C116">
+        <v>3.49E-3</v>
+      </c>
+      <c r="E116" s="5">
+        <v>3.2390400000000002E-4</v>
+      </c>
+      <c r="H116">
+        <v>3</v>
+      </c>
+      <c r="L116">
+        <f t="shared" si="1"/>
+        <v>3.2390412437918379E-5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>3.4869999999999998E-2</v>
+      </c>
+      <c r="C117">
+        <v>3.49E-3</v>
+      </c>
+      <c r="E117" s="5">
+        <v>3.2390400000000002E-4</v>
+      </c>
+      <c r="H117">
+        <v>3</v>
+      </c>
+      <c r="L117">
+        <f t="shared" si="1"/>
+        <v>3.2390412437918379E-5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>3.4869999999999998E-2</v>
+      </c>
+      <c r="C118">
+        <v>3.49E-3</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>3.4889999999999997E-2</v>
+      </c>
+      <c r="C119">
+        <v>3.49E-3</v>
+      </c>
+      <c r="E119" s="5">
+        <v>4.3187199999999997E-4</v>
+      </c>
+      <c r="H119">
+        <v>4</v>
+      </c>
+      <c r="L119">
+        <f t="shared" si="1"/>
+        <v>4.3187216583891174E-5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>3.49E-2</v>
+      </c>
+      <c r="C120">
+        <v>3.49E-3</v>
+      </c>
+      <c r="E120" s="5">
+        <v>3.2390400000000002E-4</v>
+      </c>
+      <c r="H120">
+        <v>3</v>
+      </c>
+      <c r="L120">
+        <f t="shared" si="1"/>
+        <v>3.2390412437918379E-5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>3.49E-2</v>
+      </c>
+      <c r="C121">
+        <v>3.49E-3</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>3.492E-2</v>
+      </c>
+      <c r="C122">
+        <v>3.49E-3</v>
+      </c>
+      <c r="E122" s="5">
+        <v>6.4780800000000004E-4</v>
+      </c>
+      <c r="H122">
+        <v>6</v>
+      </c>
+      <c r="L122">
+        <f t="shared" si="1"/>
+        <v>6.4780824875836757E-5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>3.4930000000000003E-2</v>
+      </c>
+      <c r="C123">
+        <v>3.49E-3</v>
+      </c>
+      <c r="E123" s="5">
+        <v>3.2390400000000002E-4</v>
+      </c>
+      <c r="H123">
+        <v>3</v>
+      </c>
+      <c r="L123">
+        <f t="shared" si="1"/>
+        <v>3.2390412437918379E-5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>3.4950000000000002E-2</v>
+      </c>
+      <c r="C124">
+        <v>3.49E-3</v>
+      </c>
+      <c r="E124" s="5">
+        <v>4.3187199999999997E-4</v>
+      </c>
+      <c r="H124">
+        <v>4</v>
+      </c>
+      <c r="L124">
+        <f t="shared" si="1"/>
+        <v>4.3187216583891174E-5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>3.4959999999999998E-2</v>
+      </c>
+      <c r="C125">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="E125" s="5">
+        <v>2.1593599999999999E-4</v>
+      </c>
+      <c r="H125">
+        <v>2</v>
+      </c>
+      <c r="L125">
+        <f t="shared" si="1"/>
+        <v>2.1593608291945587E-5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>3.4959999999999998E-2</v>
+      </c>
+      <c r="C126">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="E126" s="5">
+        <v>2.1593599999999999E-4</v>
+      </c>
+      <c r="H126">
+        <v>2</v>
+      </c>
+      <c r="L126">
+        <f t="shared" si="1"/>
+        <v>2.1593608291945587E-5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>3.4959999999999998E-2</v>
+      </c>
+      <c r="C127">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>3.4979999999999997E-2</v>
+      </c>
+      <c r="C128">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="E128" s="5">
+        <v>3.2390400000000002E-4</v>
+      </c>
+      <c r="H128">
+        <v>3</v>
+      </c>
+      <c r="L128">
+        <f t="shared" si="1"/>
+        <v>3.2390412437918379E-5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>3.499E-2</v>
+      </c>
+      <c r="C129">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="E129" s="5">
+        <v>3.2390400000000002E-4</v>
+      </c>
+      <c r="H129">
+        <v>3</v>
+      </c>
+      <c r="L129">
+        <f t="shared" si="1"/>
+        <v>3.2390412437918379E-5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C130">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="E130" s="5">
+        <v>2.1593599999999999E-4</v>
+      </c>
+      <c r="H130">
+        <v>2</v>
+      </c>
+      <c r="L130">
+        <f t="shared" ref="L130:L193" si="2">H130/$J$1 * 0.1</f>
+        <v>2.1593608291945587E-5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>3.5009999999999999E-2</v>
+      </c>
+      <c r="C131">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="E131" s="5">
+        <v>4.3187199999999997E-4</v>
+      </c>
+      <c r="H131">
+        <v>4</v>
+      </c>
+      <c r="L131">
+        <f t="shared" si="2"/>
+        <v>4.3187216583891174E-5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>3.5020000000000003E-2</v>
+      </c>
+      <c r="C132">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="E132" s="5">
+        <v>2.1593599999999999E-4</v>
+      </c>
+      <c r="H132">
+        <v>2</v>
+      </c>
+      <c r="L132">
+        <f t="shared" si="2"/>
+        <v>2.1593608291945587E-5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>3.5029999999999999E-2</v>
+      </c>
+      <c r="C133">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="E133" s="5">
+        <v>2.1593599999999999E-4</v>
+      </c>
+      <c r="H133">
+        <v>2</v>
+      </c>
+      <c r="L133">
+        <f t="shared" si="2"/>
+        <v>2.1593608291945587E-5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>3.5040000000000002E-2</v>
+      </c>
+      <c r="C134">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="E134" s="5">
+        <v>3.2390400000000002E-4</v>
+      </c>
+      <c r="H134">
+        <v>3</v>
+      </c>
+      <c r="L134">
+        <f t="shared" si="2"/>
+        <v>3.2390412437918379E-5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>3.5049999999999998E-2</v>
+      </c>
+      <c r="C135">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="E135" s="5">
+        <v>3.2390400000000002E-4</v>
+      </c>
+      <c r="H135">
+        <v>3</v>
+      </c>
+      <c r="L135">
+        <f t="shared" si="2"/>
+        <v>3.2390412437918379E-5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>3.5060000000000001E-2</v>
+      </c>
+      <c r="C136">
+        <v>3.5100000000000001E-3</v>
+      </c>
+      <c r="E136" s="5">
+        <v>2.1593599999999999E-4</v>
+      </c>
+      <c r="H136">
+        <v>2</v>
+      </c>
+      <c r="L136">
+        <f t="shared" si="2"/>
+        <v>2.1593608291945587E-5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>3.5060000000000001E-2</v>
+      </c>
+      <c r="C137">
+        <v>3.5100000000000001E-3</v>
+      </c>
+      <c r="E137" s="5">
+        <v>1.0796799999999999E-4</v>
+      </c>
+      <c r="H137">
+        <v>1</v>
+      </c>
+      <c r="L137">
+        <f t="shared" si="2"/>
+        <v>1.0796804145972793E-5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>3.5069999999999997E-2</v>
+      </c>
+      <c r="C138">
+        <v>3.5100000000000001E-3</v>
+      </c>
+      <c r="E138" s="5">
+        <v>2.1593599999999999E-4</v>
+      </c>
+      <c r="H138">
+        <v>2</v>
+      </c>
+      <c r="L138">
+        <f t="shared" si="2"/>
+        <v>2.1593608291945587E-5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>3.508E-2</v>
+      </c>
+      <c r="C139">
+        <v>3.5100000000000001E-3</v>
+      </c>
+      <c r="E139" s="5">
+        <v>4.3187199999999997E-4</v>
+      </c>
+      <c r="H139">
+        <v>4</v>
+      </c>
+      <c r="L139">
+        <f t="shared" si="2"/>
+        <v>4.3187216583891174E-5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>3.5090000000000003E-2</v>
+      </c>
+      <c r="C140">
+        <v>3.5100000000000001E-3</v>
+      </c>
+      <c r="E140" s="5">
+        <v>1.0796799999999999E-4</v>
+      </c>
+      <c r="H140">
+        <v>1</v>
+      </c>
+      <c r="L140">
+        <f t="shared" si="2"/>
+        <v>1.0796804145972793E-5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>3.5090000000000003E-2</v>
+      </c>
+      <c r="C141">
+        <v>3.5100000000000001E-3</v>
+      </c>
+      <c r="E141" s="5">
+        <v>1.0796799999999999E-4</v>
+      </c>
+      <c r="H141">
+        <v>1</v>
+      </c>
+      <c r="L141">
+        <f t="shared" si="2"/>
+        <v>1.0796804145972793E-5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>3.5099999999999999E-2</v>
+      </c>
+      <c r="C142">
+        <v>3.5100000000000001E-3</v>
+      </c>
+      <c r="E142" s="5">
+        <v>3.2390400000000002E-4</v>
+      </c>
+      <c r="H142">
+        <v>3</v>
+      </c>
+      <c r="L142">
+        <f t="shared" si="2"/>
+        <v>3.2390412437918379E-5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>3.5110000000000002E-2</v>
+      </c>
+      <c r="C143">
+        <v>3.5100000000000001E-3</v>
+      </c>
+      <c r="E143" s="5">
+        <v>2.1593599999999999E-4</v>
+      </c>
+      <c r="H143">
+        <v>2</v>
+      </c>
+      <c r="L143">
+        <f t="shared" si="2"/>
+        <v>2.1593608291945587E-5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>3.5110000000000002E-2</v>
+      </c>
+      <c r="C144">
+        <v>3.5100000000000001E-3</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>3.5110000000000002E-2</v>
+      </c>
+      <c r="C145">
+        <v>3.5100000000000001E-3</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>3.5119999999999998E-2</v>
+      </c>
+      <c r="C146">
+        <v>3.5100000000000001E-3</v>
+      </c>
+      <c r="E146" s="5">
+        <v>4.3187199999999997E-4</v>
+      </c>
+      <c r="H146">
+        <v>4</v>
+      </c>
+      <c r="L146">
+        <f t="shared" si="2"/>
+        <v>4.3187216583891174E-5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>3.5119999999999998E-2</v>
+      </c>
+      <c r="C147">
+        <v>3.5100000000000001E-3</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>3.5130000000000002E-2</v>
+      </c>
+      <c r="C148">
+        <v>3.5100000000000001E-3</v>
+      </c>
+      <c r="E148" s="5">
+        <v>1.0796799999999999E-4</v>
+      </c>
+      <c r="H148">
+        <v>1</v>
+      </c>
+      <c r="L148">
+        <f t="shared" si="2"/>
+        <v>1.0796804145972793E-5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>3.5130000000000002E-2</v>
+      </c>
+      <c r="C149">
+        <v>3.5100000000000001E-3</v>
+      </c>
+      <c r="E149" s="5">
+        <v>1.0796799999999999E-4</v>
+      </c>
+      <c r="H149">
+        <v>1</v>
+      </c>
+      <c r="L149">
+        <f t="shared" si="2"/>
+        <v>1.0796804145972793E-5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>3.5139999999999998E-2</v>
+      </c>
+      <c r="C150">
+        <v>3.5100000000000001E-3</v>
+      </c>
+      <c r="E150" s="5">
+        <v>2.1593599999999999E-4</v>
+      </c>
+      <c r="H150">
+        <v>2</v>
+      </c>
+      <c r="L150">
+        <f t="shared" si="2"/>
+        <v>2.1593608291945587E-5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>3.5150000000000001E-2</v>
+      </c>
+      <c r="C151">
+        <v>3.5100000000000001E-3</v>
+      </c>
+      <c r="E151" s="5">
+        <v>2.1593599999999999E-4</v>
+      </c>
+      <c r="H151">
+        <v>2</v>
+      </c>
+      <c r="L151">
+        <f t="shared" si="2"/>
+        <v>2.1593608291945587E-5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>3.5150000000000001E-2</v>
+      </c>
+      <c r="C152">
+        <v>3.5100000000000001E-3</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>3.5150000000000001E-2</v>
+      </c>
+      <c r="C153">
+        <v>3.5100000000000001E-3</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>3.5150000000000001E-2</v>
+      </c>
+      <c r="C154">
+        <v>3.5100000000000001E-3</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>3.5150000000000001E-2</v>
+      </c>
+      <c r="C155">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E155" s="5">
+        <v>2.1593599999999999E-4</v>
+      </c>
+      <c r="H155">
+        <v>2</v>
+      </c>
+      <c r="L155">
+        <f t="shared" si="2"/>
+        <v>2.1593608291945587E-5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>3.5159999999999997E-2</v>
+      </c>
+      <c r="C156">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E156" s="5">
+        <v>2.1593599999999999E-4</v>
+      </c>
+      <c r="H156">
+        <v>2</v>
+      </c>
+      <c r="L156">
+        <f t="shared" si="2"/>
+        <v>2.1593608291945587E-5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>3.517E-2</v>
+      </c>
+      <c r="C157">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E157" s="5">
+        <v>1.0796799999999999E-4</v>
+      </c>
+      <c r="H157">
+        <v>1</v>
+      </c>
+      <c r="L157">
+        <f t="shared" si="2"/>
+        <v>1.0796804145972793E-5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>3.517E-2</v>
+      </c>
+      <c r="C158">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E158" s="5">
+        <v>1.0796799999999999E-4</v>
+      </c>
+      <c r="H158">
+        <v>1</v>
+      </c>
+      <c r="L158">
+        <f t="shared" si="2"/>
+        <v>1.0796804145972793E-5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>3.517E-2</v>
+      </c>
+      <c r="C159">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>3.517E-2</v>
+      </c>
+      <c r="C160">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E160" s="5">
+        <v>1.0796799999999999E-4</v>
+      </c>
+      <c r="H160">
+        <v>1</v>
+      </c>
+      <c r="L160">
+        <f t="shared" si="2"/>
+        <v>1.0796804145972793E-5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>3.5189999999999999E-2</v>
+      </c>
+      <c r="C161">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E161" s="5">
+        <v>3.2390400000000002E-4</v>
+      </c>
+      <c r="H161">
+        <v>3</v>
+      </c>
+      <c r="L161">
+        <f t="shared" si="2"/>
+        <v>3.2390412437918379E-5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>3.5189999999999999E-2</v>
+      </c>
+      <c r="C162">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>3.5189999999999999E-2</v>
+      </c>
+      <c r="C163">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E163" s="5">
+        <v>1.0796799999999999E-4</v>
+      </c>
+      <c r="H163">
+        <v>1</v>
+      </c>
+      <c r="L163">
+        <f t="shared" si="2"/>
+        <v>1.0796804145972793E-5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>3.5189999999999999E-2</v>
+      </c>
+      <c r="C164">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>3.5200000000000002E-2</v>
+      </c>
+      <c r="C165">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E165" s="5">
+        <v>2.1593599999999999E-4</v>
+      </c>
+      <c r="H165">
+        <v>2</v>
+      </c>
+      <c r="L165">
+        <f t="shared" si="2"/>
+        <v>2.1593608291945587E-5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>3.5200000000000002E-2</v>
+      </c>
+      <c r="C166">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E166" s="5">
+        <v>2.1593599999999999E-4</v>
+      </c>
+      <c r="H166">
+        <v>2</v>
+      </c>
+      <c r="L166">
+        <f t="shared" si="2"/>
+        <v>2.1593608291945587E-5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>3.5200000000000002E-2</v>
+      </c>
+      <c r="C167">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>3.5200000000000002E-2</v>
+      </c>
+      <c r="C168">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>3.5200000000000002E-2</v>
+      </c>
+      <c r="C169">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="L169">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>3.5209999999999998E-2</v>
+      </c>
+      <c r="C170">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E170" s="5">
+        <v>1.0796799999999999E-4</v>
+      </c>
+      <c r="H170">
+        <v>1</v>
+      </c>
+      <c r="L170">
+        <f t="shared" si="2"/>
+        <v>1.0796804145972793E-5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>3.5209999999999998E-2</v>
+      </c>
+      <c r="C171">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E171" s="5">
+        <v>1.0796799999999999E-4</v>
+      </c>
+      <c r="H171">
+        <v>1</v>
+      </c>
+      <c r="L171">
+        <f t="shared" si="2"/>
+        <v>1.0796804145972793E-5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>3.5209999999999998E-2</v>
+      </c>
+      <c r="C172">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>3.5220000000000001E-2</v>
+      </c>
+      <c r="C173">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E173" s="5">
+        <v>1.0796799999999999E-4</v>
+      </c>
+      <c r="H173">
+        <v>1</v>
+      </c>
+      <c r="L173">
+        <f t="shared" si="2"/>
+        <v>1.0796804145972793E-5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>3.5220000000000001E-2</v>
+      </c>
+      <c r="C174">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>3.5220000000000001E-2</v>
+      </c>
+      <c r="C175">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>3.5220000000000001E-2</v>
+      </c>
+      <c r="C176">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="L176">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>3.5220000000000001E-2</v>
+      </c>
+      <c r="C177">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E177" s="5">
+        <v>2.1593599999999999E-4</v>
+      </c>
+      <c r="H177">
+        <v>2</v>
+      </c>
+      <c r="L177">
+        <f t="shared" si="2"/>
+        <v>2.1593608291945587E-5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>3.5220000000000001E-2</v>
+      </c>
+      <c r="C178">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>3.5220000000000001E-2</v>
+      </c>
+      <c r="C179">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="L179">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>3.5220000000000001E-2</v>
+      </c>
+      <c r="C180">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>3.5220000000000001E-2</v>
+      </c>
+      <c r="C181">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>3.5220000000000001E-2</v>
+      </c>
+      <c r="C182">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
+      <c r="L182">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>3.5229999999999997E-2</v>
+      </c>
+      <c r="C183">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E183" s="5">
+        <v>1.0796799999999999E-4</v>
+      </c>
+      <c r="H183">
+        <v>1</v>
+      </c>
+      <c r="L183">
+        <f t="shared" si="2"/>
+        <v>1.0796804145972793E-5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>3.5229999999999997E-2</v>
+      </c>
+      <c r="C184">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="L184">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>3.5229999999999997E-2</v>
+      </c>
+      <c r="C185">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+      <c r="L185">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>3.5229999999999997E-2</v>
+      </c>
+      <c r="C186">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="L186">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>3.5229999999999997E-2</v>
+      </c>
+      <c r="C187">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>3.5229999999999997E-2</v>
+      </c>
+      <c r="C188">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="L188">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>3.5229999999999997E-2</v>
+      </c>
+      <c r="C189">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="L189">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>3.5229999999999997E-2</v>
+      </c>
+      <c r="C190">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E190" s="5">
+        <v>2.1593599999999999E-4</v>
+      </c>
+      <c r="H190">
+        <v>2</v>
+      </c>
+      <c r="L190">
+        <f t="shared" si="2"/>
+        <v>2.1593608291945587E-5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>3.5229999999999997E-2</v>
+      </c>
+      <c r="C191">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="L191">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>3.5229999999999997E-2</v>
+      </c>
+      <c r="C192">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="H192">
+        <v>0</v>
+      </c>
+      <c r="L192">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>3.524E-2</v>
+      </c>
+      <c r="C193">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E193" s="5">
+        <v>1.0796799999999999E-4</v>
+      </c>
+      <c r="H193">
+        <v>1</v>
+      </c>
+      <c r="L193">
+        <f t="shared" si="2"/>
+        <v>1.0796804145972793E-5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>3.524E-2</v>
+      </c>
+      <c r="C194">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E194" s="5">
+        <v>1.0796799999999999E-4</v>
+      </c>
+      <c r="H194">
+        <v>1</v>
+      </c>
+      <c r="L194">
+        <f t="shared" ref="L194:L257" si="3">H194/$J$1 * 0.1</f>
+        <v>1.0796804145972793E-5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>3.524E-2</v>
+      </c>
+      <c r="C195">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="H195">
+        <v>0</v>
+      </c>
+      <c r="L195">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>3.524E-2</v>
+      </c>
+      <c r="C196">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+      <c r="H196">
+        <v>0</v>
+      </c>
+      <c r="L196">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>3.524E-2</v>
+      </c>
+      <c r="C197">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="H197">
+        <v>0</v>
+      </c>
+      <c r="L197">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>3.524E-2</v>
+      </c>
+      <c r="C198">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="H198">
+        <v>0</v>
+      </c>
+      <c r="L198">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>3.524E-2</v>
+      </c>
+      <c r="C199">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="H199">
+        <v>0</v>
+      </c>
+      <c r="L199">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>3.524E-2</v>
+      </c>
+      <c r="C200">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="L200">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>3.524E-2</v>
+      </c>
+      <c r="C201">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="H201">
+        <v>0</v>
+      </c>
+      <c r="L201">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>3.524E-2</v>
+      </c>
+      <c r="C202">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E202">
+        <v>0</v>
+      </c>
+      <c r="H202">
+        <v>0</v>
+      </c>
+      <c r="L202">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>3.524E-2</v>
+      </c>
+      <c r="C203">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+      <c r="H203">
+        <v>0</v>
+      </c>
+      <c r="L203">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>3.524E-2</v>
+      </c>
+      <c r="C204">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
+      <c r="H204">
+        <v>0</v>
+      </c>
+      <c r="L204">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>3.524E-2</v>
+      </c>
+      <c r="C205">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+      <c r="H205">
+        <v>0</v>
+      </c>
+      <c r="L205">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>3.524E-2</v>
+      </c>
+      <c r="C206">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E206">
+        <v>0</v>
+      </c>
+      <c r="H206">
+        <v>0</v>
+      </c>
+      <c r="L206">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>3.524E-2</v>
+      </c>
+      <c r="C207">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+      <c r="H207">
+        <v>0</v>
+      </c>
+      <c r="L207">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>3.524E-2</v>
+      </c>
+      <c r="C208">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E208">
+        <v>0</v>
+      </c>
+      <c r="H208">
+        <v>0</v>
+      </c>
+      <c r="L208">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>3.524E-2</v>
+      </c>
+      <c r="C209">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+      <c r="H209">
+        <v>0</v>
+      </c>
+      <c r="L209">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>3.524E-2</v>
+      </c>
+      <c r="C210">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E210">
+        <v>0</v>
+      </c>
+      <c r="H210">
+        <v>0</v>
+      </c>
+      <c r="L210">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>3.524E-2</v>
+      </c>
+      <c r="C211">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E211">
+        <v>0</v>
+      </c>
+      <c r="H211">
+        <v>0</v>
+      </c>
+      <c r="L211">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>3.524E-2</v>
+      </c>
+      <c r="C212">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E212">
+        <v>0</v>
+      </c>
+      <c r="H212">
+        <v>0</v>
+      </c>
+      <c r="L212">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>3.524E-2</v>
+      </c>
+      <c r="C213">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E213">
+        <v>0</v>
+      </c>
+      <c r="H213">
+        <v>0</v>
+      </c>
+      <c r="L213">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>3.524E-2</v>
+      </c>
+      <c r="C214">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E214">
+        <v>0</v>
+      </c>
+      <c r="H214">
+        <v>0</v>
+      </c>
+      <c r="L214">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>3.524E-2</v>
+      </c>
+      <c r="C215">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E215">
+        <v>0</v>
+      </c>
+      <c r="H215">
+        <v>0</v>
+      </c>
+      <c r="L215">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>3.524E-2</v>
+      </c>
+      <c r="C216">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E216">
+        <v>0</v>
+      </c>
+      <c r="H216">
+        <v>0</v>
+      </c>
+      <c r="L216">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>3.524E-2</v>
+      </c>
+      <c r="C217">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E217">
+        <v>0</v>
+      </c>
+      <c r="H217">
+        <v>0</v>
+      </c>
+      <c r="L217">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>3.524E-2</v>
+      </c>
+      <c r="C218">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E218">
+        <v>0</v>
+      </c>
+      <c r="H218">
+        <v>0</v>
+      </c>
+      <c r="L218">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>3.524E-2</v>
+      </c>
+      <c r="C219">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+      <c r="H219">
+        <v>0</v>
+      </c>
+      <c r="L219">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>3.524E-2</v>
+      </c>
+      <c r="C220">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E220">
+        <v>0</v>
+      </c>
+      <c r="H220">
+        <v>0</v>
+      </c>
+      <c r="L220">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>3.524E-2</v>
+      </c>
+      <c r="C221">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E221">
+        <v>0</v>
+      </c>
+      <c r="H221">
+        <v>0</v>
+      </c>
+      <c r="L221">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>3.524E-2</v>
+      </c>
+      <c r="C222">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>3.524E-2</v>
+      </c>
+      <c r="C223">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C224">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E224" s="5">
+        <v>1.0796799999999999E-4</v>
+      </c>
+      <c r="H224">
+        <v>1</v>
+      </c>
+      <c r="L224">
+        <f t="shared" si="3"/>
+        <v>1.0796804145972793E-5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C225">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C226">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C227">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C228">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C229">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E229" s="5">
+        <v>1.0796799999999999E-4</v>
+      </c>
+      <c r="H229">
+        <v>1</v>
+      </c>
+      <c r="L229">
+        <f t="shared" si="3"/>
+        <v>1.0796804145972793E-5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C230">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C231">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C232">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C233">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C234">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E234">
+        <v>0</v>
+      </c>
+      <c r="H234">
+        <v>0</v>
+      </c>
+      <c r="L234">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C235">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E235">
+        <v>0</v>
+      </c>
+      <c r="H235">
+        <v>0</v>
+      </c>
+      <c r="L235">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C236">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E236">
+        <v>0</v>
+      </c>
+      <c r="H236">
+        <v>0</v>
+      </c>
+      <c r="L236">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C237">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E237">
+        <v>0</v>
+      </c>
+      <c r="H237">
+        <v>0</v>
+      </c>
+      <c r="L237">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C238">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E238">
+        <v>0</v>
+      </c>
+      <c r="H238">
+        <v>0</v>
+      </c>
+      <c r="L238">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C239">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E239" s="5">
+        <v>1.0796799999999999E-4</v>
+      </c>
+      <c r="H239">
+        <v>1</v>
+      </c>
+      <c r="L239">
+        <f t="shared" si="3"/>
+        <v>1.0796804145972793E-5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C240">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E240">
+        <v>0</v>
+      </c>
+      <c r="H240">
+        <v>0</v>
+      </c>
+      <c r="L240">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C241">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E241">
+        <v>0</v>
+      </c>
+      <c r="H241">
+        <v>0</v>
+      </c>
+      <c r="L241">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C242">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E242">
+        <v>0</v>
+      </c>
+      <c r="H242">
+        <v>0</v>
+      </c>
+      <c r="L242">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C243">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E243">
+        <v>0</v>
+      </c>
+      <c r="H243">
+        <v>0</v>
+      </c>
+      <c r="L243">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C244">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E244">
+        <v>0</v>
+      </c>
+      <c r="H244">
+        <v>0</v>
+      </c>
+      <c r="L244">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C245">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E245">
+        <v>0</v>
+      </c>
+      <c r="H245">
+        <v>0</v>
+      </c>
+      <c r="L245">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C246">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E246">
+        <v>0</v>
+      </c>
+      <c r="H246">
+        <v>0</v>
+      </c>
+      <c r="L246">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C247">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E247">
+        <v>0</v>
+      </c>
+      <c r="H247">
+        <v>0</v>
+      </c>
+      <c r="L247">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C248">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E248">
+        <v>0</v>
+      </c>
+      <c r="H248">
+        <v>0</v>
+      </c>
+      <c r="L248">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C249">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E249">
+        <v>0</v>
+      </c>
+      <c r="H249">
+        <v>0</v>
+      </c>
+      <c r="L249">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C250">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E250">
+        <v>0</v>
+      </c>
+      <c r="H250">
+        <v>0</v>
+      </c>
+      <c r="L250">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C251">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E251">
+        <v>0</v>
+      </c>
+      <c r="H251">
+        <v>0</v>
+      </c>
+      <c r="L251">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C252">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E252">
+        <v>0</v>
+      </c>
+      <c r="H252">
+        <v>0</v>
+      </c>
+      <c r="L252">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C253">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E253">
+        <v>0</v>
+      </c>
+      <c r="H253">
+        <v>0</v>
+      </c>
+      <c r="L253">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C254">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E254">
+        <v>0</v>
+      </c>
+      <c r="H254">
+        <v>0</v>
+      </c>
+      <c r="L254">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C255">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E255">
+        <v>0</v>
+      </c>
+      <c r="H255">
+        <v>0</v>
+      </c>
+      <c r="L255">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C256">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E256">
+        <v>0</v>
+      </c>
+      <c r="H256">
+        <v>0</v>
+      </c>
+      <c r="L256">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C257">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E257">
+        <v>0</v>
+      </c>
+      <c r="H257">
+        <v>0</v>
+      </c>
+      <c r="L257">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C258">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E258">
+        <v>0</v>
+      </c>
+      <c r="H258">
+        <v>0</v>
+      </c>
+      <c r="L258">
+        <f t="shared" ref="L258:L307" si="4">H258/$J$1 * 0.1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C259">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E259">
+        <v>0</v>
+      </c>
+      <c r="H259">
+        <v>0</v>
+      </c>
+      <c r="L259">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C260">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E260">
+        <v>0</v>
+      </c>
+      <c r="H260">
+        <v>0</v>
+      </c>
+      <c r="L260">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C261">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E261">
+        <v>0</v>
+      </c>
+      <c r="H261">
+        <v>0</v>
+      </c>
+      <c r="L261">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C262">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E262">
+        <v>0</v>
+      </c>
+      <c r="H262">
+        <v>0</v>
+      </c>
+      <c r="L262">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C263">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E263">
+        <v>0</v>
+      </c>
+      <c r="H263">
+        <v>0</v>
+      </c>
+      <c r="L263">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C264">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E264">
+        <v>0</v>
+      </c>
+      <c r="H264">
+        <v>0</v>
+      </c>
+      <c r="L264">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C265">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E265">
+        <v>0</v>
+      </c>
+      <c r="H265">
+        <v>0</v>
+      </c>
+      <c r="L265">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C266">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E266">
+        <v>0</v>
+      </c>
+      <c r="H266">
+        <v>0</v>
+      </c>
+      <c r="L266">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C267">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E267">
+        <v>0</v>
+      </c>
+      <c r="H267">
+        <v>0</v>
+      </c>
+      <c r="L267">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C268">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E268">
+        <v>0</v>
+      </c>
+      <c r="H268">
+        <v>0</v>
+      </c>
+      <c r="L268">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C269">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E269">
+        <v>0</v>
+      </c>
+      <c r="H269">
+        <v>0</v>
+      </c>
+      <c r="L269">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C270">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E270">
+        <v>0</v>
+      </c>
+      <c r="H270">
+        <v>0</v>
+      </c>
+      <c r="L270">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C271">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E271">
+        <v>0</v>
+      </c>
+      <c r="H271">
+        <v>0</v>
+      </c>
+      <c r="L271">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C272">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E272">
+        <v>0</v>
+      </c>
+      <c r="H272">
+        <v>0</v>
+      </c>
+      <c r="L272">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C273">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E273">
+        <v>0</v>
+      </c>
+      <c r="H273">
+        <v>0</v>
+      </c>
+      <c r="L273">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C274">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E274">
+        <v>0</v>
+      </c>
+      <c r="H274">
+        <v>0</v>
+      </c>
+      <c r="L274">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C275">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E275">
+        <v>0</v>
+      </c>
+      <c r="H275">
+        <v>0</v>
+      </c>
+      <c r="L275">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C276">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E276">
+        <v>0</v>
+      </c>
+      <c r="H276">
+        <v>0</v>
+      </c>
+      <c r="L276">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C277">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E277">
+        <v>0</v>
+      </c>
+      <c r="H277">
+        <v>0</v>
+      </c>
+      <c r="L277">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C278">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E278">
+        <v>0</v>
+      </c>
+      <c r="H278">
+        <v>0</v>
+      </c>
+      <c r="L278">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C279">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="H279">
+        <v>0</v>
+      </c>
+      <c r="L279">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C280">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="H280">
+        <v>0</v>
+      </c>
+      <c r="L280">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C281">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E281">
+        <v>0</v>
+      </c>
+      <c r="H281">
+        <v>0</v>
+      </c>
+      <c r="L281">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C282">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E282">
+        <v>0</v>
+      </c>
+      <c r="H282">
+        <v>0</v>
+      </c>
+      <c r="L282">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C283">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E283">
+        <v>0</v>
+      </c>
+      <c r="H283">
+        <v>0</v>
+      </c>
+      <c r="L283">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C284">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E284">
+        <v>0</v>
+      </c>
+      <c r="H284">
+        <v>0</v>
+      </c>
+      <c r="L284">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C285">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E285">
+        <v>0</v>
+      </c>
+      <c r="H285">
+        <v>0</v>
+      </c>
+      <c r="L285">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C286">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E286">
+        <v>0</v>
+      </c>
+      <c r="H286">
+        <v>0</v>
+      </c>
+      <c r="L286">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C287">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E287">
+        <v>0</v>
+      </c>
+      <c r="H287">
+        <v>0</v>
+      </c>
+      <c r="L287">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C288">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E288">
+        <v>0</v>
+      </c>
+      <c r="H288">
+        <v>0</v>
+      </c>
+      <c r="L288">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C289">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E289">
+        <v>0</v>
+      </c>
+      <c r="H289">
+        <v>0</v>
+      </c>
+      <c r="L289">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C290">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E290">
+        <v>0</v>
+      </c>
+      <c r="H290">
+        <v>0</v>
+      </c>
+      <c r="L290">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C291">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E291">
+        <v>0</v>
+      </c>
+      <c r="H291">
+        <v>0</v>
+      </c>
+      <c r="L291">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C292">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E292">
+        <v>0</v>
+      </c>
+      <c r="H292">
+        <v>0</v>
+      </c>
+      <c r="L292">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C293">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E293">
+        <v>0</v>
+      </c>
+      <c r="H293">
+        <v>0</v>
+      </c>
+      <c r="L293">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C294">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E294">
+        <v>0</v>
+      </c>
+      <c r="H294">
+        <v>0</v>
+      </c>
+      <c r="L294">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C295">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E295">
+        <v>0</v>
+      </c>
+      <c r="H295">
+        <v>0</v>
+      </c>
+      <c r="L295">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C296">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E296">
+        <v>0</v>
+      </c>
+      <c r="H296">
+        <v>0</v>
+      </c>
+      <c r="L296">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C297">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E297">
+        <v>0</v>
+      </c>
+      <c r="H297">
+        <v>0</v>
+      </c>
+      <c r="L297">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C298">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E298">
+        <v>0</v>
+      </c>
+      <c r="H298">
+        <v>0</v>
+      </c>
+      <c r="L298">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C299">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E299">
+        <v>0</v>
+      </c>
+      <c r="H299">
+        <v>0</v>
+      </c>
+      <c r="L299">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C300">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E300">
+        <v>0</v>
+      </c>
+      <c r="H300">
+        <v>0</v>
+      </c>
+      <c r="L300">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C301">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E301">
+        <v>0</v>
+      </c>
+      <c r="H301">
+        <v>0</v>
+      </c>
+      <c r="L301">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C302">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E302">
+        <v>0</v>
+      </c>
+      <c r="H302">
+        <v>0</v>
+      </c>
+      <c r="L302">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C303">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E303">
+        <v>0</v>
+      </c>
+      <c r="H303">
+        <v>0</v>
+      </c>
+      <c r="L303">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C304">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E304">
+        <v>0</v>
+      </c>
+      <c r="H304">
+        <v>0</v>
+      </c>
+      <c r="L304">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>3.5249999999999997E-2</v>
+      </c>
+      <c r="C305">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E305">
+        <v>0</v>
+      </c>
+      <c r="H305">
+        <v>0</v>
+      </c>
+      <c r="L305">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>3.526E-2</v>
+      </c>
+      <c r="C306">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E306" s="5">
+        <v>1.0796799999999999E-4</v>
+      </c>
+      <c r="H306">
+        <v>1</v>
+      </c>
+      <c r="L306">
+        <f t="shared" si="4"/>
+        <v>1.0796804145972793E-5</v>
+      </c>
+    </row>
+    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>3.526E-2</v>
+      </c>
+      <c r="C307">
+        <v>3.5300000000000002E-3</v>
+      </c>
+      <c r="E307">
+        <v>0</v>
+      </c>
+      <c r="H307">
+        <v>0</v>
+      </c>
+      <c r="L307">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DC/tektronix_parser.xlsx
+++ b/DC/tektronix_parser.xlsx
@@ -3806,7 +3806,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DC/tektronix_parser.xlsx
+++ b/DC/tektronix_parser.xlsx
@@ -201,7 +201,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -382,11 +381,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="224369352"/>
-        <c:axId val="224371312"/>
+        <c:axId val="195919056"/>
+        <c:axId val="247880376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="224369352"/>
+        <c:axId val="195919056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -443,12 +442,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="224371312"/>
+        <c:crossAx val="247880376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="224371312"/>
+        <c:axId val="247880376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -505,7 +504,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="224369352"/>
+        <c:crossAx val="195919056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -632,10 +631,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист5!$E$2:$E$12</c:f>
+              <c:f>Лист5!$E$2:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -666,44 +665,104 @@
                 <c:pt idx="9">
                   <c:v>0.9</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист5!$F$2:$F$12</c:f>
+              <c:f>Лист5!$F$2:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>5.2385480745310416E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5464102092492508E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8905286592351488E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2775646860948303E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7158978470981096E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.2162138336500731E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.7923499686786607E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.4625399143429411E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.251295255880343E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.10192337737248444</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.11333333333333333</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="11">
                   <c:v>0.12743860293892859</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="12">
                   <c:v>0.14529504712160596</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="13">
                   <c:v>0.16858354335696477</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.20014708542951243</c:v>
+                <c:pt idx="14">
+                  <c:v>0.20014708542951237</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="15">
                   <c:v>0.24519092431149039</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.31433847266142456</c:v>
+                <c:pt idx="16">
+                  <c:v>0.31433847266142462</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="17">
                   <c:v>0.43300807830629096</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="18">
                   <c:v>0.68005535875161938</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.4712653117231624</c:v>
+                <c:pt idx="19">
+                  <c:v>1.4712653117231609</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -718,11 +777,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="427270640"/>
-        <c:axId val="427270248"/>
+        <c:axId val="247881160"/>
+        <c:axId val="247881552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="427270640"/>
+        <c:axId val="247881160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -779,12 +838,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="427270248"/>
+        <c:crossAx val="247881552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="427270248"/>
+        <c:axId val="247881552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -841,7 +900,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="427270640"/>
+        <c:crossAx val="247881160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2042,15 +2101,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:colOff>561975</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2413,7 +2472,7 @@
         <v>57000</v>
       </c>
       <c r="H2" s="3">
-        <f>G2/F2</f>
+        <f t="shared" ref="H2:H8" si="0">G2/F2</f>
         <v>7.7027027027027031E-2</v>
       </c>
     </row>
@@ -2422,7 +2481,7 @@
         <v>270</v>
       </c>
       <c r="B3" s="1">
-        <f t="shared" ref="B3:B8" si="0">C3+D3</f>
+        <f t="shared" ref="B3:B8" si="1">C3+D3</f>
         <v>72.81</v>
       </c>
       <c r="C3">
@@ -2440,7 +2499,7 @@
         <v>40000</v>
       </c>
       <c r="H3" s="3">
-        <f>G3/F3</f>
+        <f t="shared" si="0"/>
         <v>3.8167938931297711E-2</v>
       </c>
     </row>
@@ -2449,7 +2508,7 @@
         <v>275</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>73.027000000000001</v>
       </c>
       <c r="C4">
@@ -2467,7 +2526,7 @@
         <v>30000</v>
       </c>
       <c r="H4" s="3">
-        <f>G4/F4</f>
+        <f t="shared" si="0"/>
         <v>2.159827213822894E-2</v>
       </c>
     </row>
@@ -2476,7 +2535,7 @@
         <v>280</v>
       </c>
       <c r="B5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>73.244</v>
       </c>
       <c r="C5">
@@ -2494,7 +2553,7 @@
         <v>79000</v>
       </c>
       <c r="H5" s="3">
-        <f>G5/F5</f>
+        <f t="shared" si="0"/>
         <v>4.249596557288865E-2</v>
       </c>
     </row>
@@ -2503,7 +2562,7 @@
         <v>285</v>
       </c>
       <c r="B6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>73.460999999999999</v>
       </c>
       <c r="C6">
@@ -2521,7 +2580,7 @@
         <v>114000</v>
       </c>
       <c r="H6" s="3">
-        <f>G6/F6</f>
+        <f t="shared" si="0"/>
         <v>3.9818372336709748E-2</v>
       </c>
     </row>
@@ -2530,7 +2589,7 @@
         <v>290</v>
       </c>
       <c r="B7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>73.677999999999997</v>
       </c>
       <c r="C7">
@@ -2548,7 +2607,7 @@
         <v>169000</v>
       </c>
       <c r="H7" s="3">
-        <f>G7/F7</f>
+        <f t="shared" si="0"/>
         <v>4.3861925772125616E-2</v>
       </c>
     </row>
@@ -2557,7 +2616,7 @@
         <v>295</v>
       </c>
       <c r="B8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>73.894999999999996</v>
       </c>
       <c r="C8">
@@ -2575,7 +2634,7 @@
         <v>237000</v>
       </c>
       <c r="H8" s="3">
-        <f>G8/F8</f>
+        <f t="shared" si="0"/>
         <v>4.7580807066854046E-2</v>
       </c>
     </row>
@@ -3803,10 +3862,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3846,8 +3905,8 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <f>$C$2 * EXP(- $C$2 * LN(1 - E2) ) / (1 - E2)</f>
-        <v>0.11333333333333333</v>
+        <f>$C$2 * EXP(- $C$2 * LN(2 - E2) ) / (2 - E2)</f>
+        <v>5.2385480745310416E-2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3855,8 +3914,8 @@
         <v>0.1</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F12" si="0">$C$2 * EXP(- $C$2 * LN(1 - E3) ) / (1 - E3)</f>
-        <v>0.12743860293892859</v>
+        <f t="shared" ref="F3:F22" si="0">$C$2 * EXP(- $C$2 * LN(2 - E3) ) / (2 - E3)</f>
+        <v>5.5464102092492508E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3865,7 +3924,7 @@
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>0.14529504712160596</v>
+        <v>5.8905286592351488E-2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3874,7 +3933,7 @@
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>0.16858354335696477</v>
+        <v>6.2775646860948303E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3883,7 +3942,7 @@
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>0.20014708542951243</v>
+        <v>6.7158978470981096E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3892,7 +3951,7 @@
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>0.24519092431149039</v>
+        <v>7.2162138336500731E-2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3901,7 +3960,7 @@
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>0.31433847266142456</v>
+        <v>7.7923499686786607E-2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3910,7 +3969,7 @@
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>0.43300807830629096</v>
+        <v>8.4625399143429411E-2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3919,7 +3978,7 @@
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>0.68005535875161938</v>
+        <v>9.251295255880343E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -3928,7 +3987,102 @@
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>1.4712653117231624</v>
+        <v>0.10192337737248444</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0.11333333333333333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0.12743860293892859</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>1.2</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0.14529504712160596</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>1.3</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0.16858354335696477</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>1.4</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0.20014708542951237</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>1.5</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>0.24519092431149039</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>1.6</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0.31433847266142462</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>1.7</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>0.43300807830629096</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>1.8</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>0.68005535875161938</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>1.9</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>1.4712653117231609</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/DC/tektronix_parser.xlsx
+++ b/DC/tektronix_parser.xlsx
@@ -3865,7 +3865,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
